--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -24,11 +24,11 @@
     <definedName name="experimentalfactor5">'cv_sample'!$AK$1:$AK$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$L$1:$L$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="630">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2425,10 +2461,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2469,10 +2505,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,7 +2555,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2536,7 +2572,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2553,7 +2589,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2570,7 +2606,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2587,7 +2623,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2604,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2621,7 +2657,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2638,7 +2674,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2655,7 +2691,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2669,7 +2705,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2683,7 +2719,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2697,7 +2733,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2711,7 +2747,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2721,8 +2757,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2732,8 +2771,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2743,8 +2785,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2754,8 +2799,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2766,7 +2814,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2777,7 +2825,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2788,7 +2836,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2799,7 +2847,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2810,7 +2858,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2821,7 +2869,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2832,7 +2880,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2843,7 +2891,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2854,7 +2902,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2865,7 +2913,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2876,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2887,7 +2935,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2898,7 +2946,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2909,7 +2957,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2917,7 +2965,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2925,7 +2973,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2933,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2941,7 +2989,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2949,7 +2997,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2957,7 +3005,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2965,7 +3013,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2973,7 +3021,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2981,7 +3029,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2989,176 +3037,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3183,27 +3271,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3226,122 +3314,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3368,240 +3456,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -3639,1962 +3727,1962 @@
   <sheetData>
     <row r="1" spans="12:37">
       <c r="L1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AG1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AH1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AI1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AJ1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AK1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="12:37">
       <c r="L2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AG2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AH2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AI2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AJ2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="12:37">
       <c r="L3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AG3" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AH3" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AI3" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AJ3" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AK3" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="12:37">
       <c r="L4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AG4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AH4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AI4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AJ4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AK4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="12:37">
       <c r="L5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AG5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AH5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AI5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AJ5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AK5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="12:37">
       <c r="L6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AG6" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AH6" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AI6" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AJ6" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AK6" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="12:37">
       <c r="L7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AG7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AH7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AI7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AJ7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AK7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="12:37">
       <c r="L8" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AG8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AH8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AI8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AJ8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AK8" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="12:37">
       <c r="L9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AG9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AH9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AI9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AJ9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AK9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="12:37">
       <c r="L10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AG10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AH10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AI10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AJ10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AK10" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="12:37">
       <c r="L11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AG11" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AH11" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AI11" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AJ11" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AK11" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="12:37">
       <c r="L12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AG12" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AH12" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AI12" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AJ12" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AK12" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="12:37">
       <c r="L13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AG13" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AH13" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AI13" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AJ13" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AK13" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="12:37">
       <c r="L14" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AG14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AH14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AI14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AJ14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AK14" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="12:37">
       <c r="L15" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AH15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AI15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AJ15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AK15" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="12:37">
       <c r="L16" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AG16" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AH16" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AI16" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AJ16" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AK16" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="12:37">
       <c r="L17" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AG17" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AH17" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AI17" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AJ17" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AK17" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="12:37">
       <c r="L18" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AG18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AH18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AI18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AJ18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AK18" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="12:37">
       <c r="L19" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AG19" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AH19" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AI19" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AJ19" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AK19" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="12:37">
       <c r="L20" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AG20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AH20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AI20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AJ20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AK20" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="12:37">
       <c r="L21" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AH21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AI21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AJ21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AK21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="12:37">
       <c r="L22" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AG22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AH22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AI22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AJ22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AK22" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="12:37">
       <c r="L23" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AG23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AH23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AI23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AJ23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AK23" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="12:37">
       <c r="L24" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AG24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AH24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AI24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AJ24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AK24" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="12:37">
       <c r="L25" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AG25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AH25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AI25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AJ25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="12:37">
       <c r="L26" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AG26" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AH26" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AI26" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AJ26" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AK26" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="12:37">
       <c r="L27" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AG27" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AH27" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AI27" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AJ27" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AK27" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="12:37">
       <c r="L28" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AH28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AI28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AJ28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK28" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="12:37">
       <c r="L29" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AG29" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AH29" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AI29" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AJ29" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK29" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="12:37">
       <c r="L30" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AH30" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AI30" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AJ30" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AK30" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="12:37">
       <c r="L31" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AH31" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AI31" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AJ31" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AK31" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="12:37">
       <c r="L32" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AG32" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AH32" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AI32" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AJ32" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AK32" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="12:37">
       <c r="L33" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AH33" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AI33" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AJ33" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AK33" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="12:37">
       <c r="L34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AH34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AI34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AJ34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AK34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="12:37">
       <c r="L35" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AH35" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AI35" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AJ35" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AK35" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="12:37">
       <c r="L36" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="12:37">
       <c r="L37" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="12:37">
       <c r="L38" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="12:37">
       <c r="L39" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="12:37">
       <c r="L40" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="12:37">
       <c r="L41" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="12:37">
       <c r="L42" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="12:37">
       <c r="L43" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="12:37">
       <c r="L44" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="12:37">
       <c r="L45" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="12:37">
       <c r="L46" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="12:37">
       <c r="L47" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="12:37">
       <c r="L48" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="12:12">
       <c r="L49" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="12:12">
       <c r="L50" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="12:12">
       <c r="L51" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="12:12">
       <c r="L52" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="12:12">
       <c r="L53" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="12:12">
       <c r="L54" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="12:12">
       <c r="L55" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="12:12">
       <c r="L56" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="12:12">
       <c r="L57" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="12:12">
       <c r="L58" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="12:12">
       <c r="L59" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="12:12">
       <c r="L60" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="12:12">
       <c r="L61" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="12:12">
       <c r="L62" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="12:12">
       <c r="L63" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="12:12">
       <c r="L64" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="12:12">
       <c r="L65" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="12:12">
       <c r="L66" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="12:12">
       <c r="L67" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="12:12">
       <c r="L68" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="12:12">
       <c r="L69" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="12:12">
       <c r="L70" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="12:12">
       <c r="L71" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="12:12">
       <c r="L72" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="12:12">
       <c r="L73" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="12:12">
       <c r="L74" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="12:12">
       <c r="L75" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="12:12">
       <c r="L76" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="12:12">
       <c r="L77" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="12:12">
       <c r="L78" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="12:12">
       <c r="L79" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="12:12">
       <c r="L80" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="12:12">
       <c r="L81" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="12:12">
       <c r="L82" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="12:12">
       <c r="L83" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="12:12">
       <c r="L84" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="12:12">
       <c r="L85" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="12:12">
       <c r="L86" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="12:12">
       <c r="L87" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="12:12">
       <c r="L88" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="12:12">
       <c r="L89" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="12:12">
       <c r="L90" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="12:12">
       <c r="L91" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="12:12">
       <c r="L92" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="12:12">
       <c r="L93" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="12:12">
       <c r="L94" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="12:12">
       <c r="L95" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="12:12">
       <c r="L96" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="12:12">
       <c r="L97" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="12:12">
       <c r="L98" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="12:12">
       <c r="L99" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="12:12">
       <c r="L100" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="12:12">
       <c r="L101" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="12:12">
       <c r="L102" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="12:12">
       <c r="L103" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="12:12">
       <c r="L104" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="12:12">
       <c r="L105" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="12:12">
       <c r="L106" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="12:12">
       <c r="L107" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="12:12">
       <c r="L108" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="12:12">
       <c r="L109" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="12:12">
       <c r="L110" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="12:12">
       <c r="L111" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="12:12">
       <c r="L112" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="12:12">
       <c r="L113" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="12:12">
       <c r="L114" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="12:12">
       <c r="L115" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="12:12">
       <c r="L116" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="12:12">
       <c r="L117" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="12:12">
       <c r="L118" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="12:12">
       <c r="L119" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="12:12">
       <c r="L120" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="12:12">
       <c r="L121" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="12:12">
       <c r="L122" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="12:12">
       <c r="L123" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="12:12">
       <c r="L124" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="12:12">
       <c r="L125" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="12:12">
       <c r="L126" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="12:12">
       <c r="L127" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="12:12">
       <c r="L128" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="12:12">
       <c r="L129" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="12:12">
       <c r="L130" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="12:12">
       <c r="L131" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="12:12">
       <c r="L132" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="12:12">
       <c r="L133" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="12:12">
       <c r="L134" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="12:12">
       <c r="L135" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="12:12">
       <c r="L136" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="12:12">
       <c r="L137" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="12:12">
       <c r="L138" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="12:12">
       <c r="L139" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="12:12">
       <c r="L140" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="12:12">
       <c r="L141" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="12:12">
       <c r="L142" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="12:12">
       <c r="L143" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="12:12">
       <c r="L144" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="12:12">
       <c r="L145" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="12:12">
       <c r="L146" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="12:12">
       <c r="L147" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="12:12">
       <c r="L148" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="12:12">
       <c r="L149" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="12:12">
       <c r="L150" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="12:12">
       <c r="L151" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="12:12">
       <c r="L152" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="12:12">
       <c r="L153" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="12:12">
       <c r="L154" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="12:12">
       <c r="L155" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="12:12">
       <c r="L156" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="12:12">
       <c r="L157" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="12:12">
       <c r="L158" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="12:12">
       <c r="L159" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="12:12">
       <c r="L160" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="12:12">
       <c r="L161" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="12:12">
       <c r="L162" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="12:12">
       <c r="L163" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="12:12">
       <c r="L164" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="12:12">
       <c r="L165" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="12:12">
       <c r="L166" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="12:12">
       <c r="L167" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="12:12">
       <c r="L168" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="12:12">
       <c r="L169" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="12:12">
       <c r="L170" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="12:12">
       <c r="L171" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="12:12">
       <c r="L172" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="12:12">
       <c r="L173" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="12:12">
       <c r="L174" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="12:12">
       <c r="L175" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="12:12">
       <c r="L176" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="12:12">
       <c r="L177" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="12:12">
       <c r="L178" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="12:12">
       <c r="L179" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="12:12">
       <c r="L180" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="12:12">
       <c r="L181" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="12:12">
       <c r="L182" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="12:12">
       <c r="L183" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="12:12">
       <c r="L184" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="12:12">
       <c r="L185" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="12:12">
       <c r="L186" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="12:12">
       <c r="L187" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="12:12">
       <c r="L188" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="12:12">
       <c r="L189" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="12:12">
       <c r="L190" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="12:12">
       <c r="L191" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="12:12">
       <c r="L192" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="12:12">
       <c r="L193" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="12:12">
       <c r="L194" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="12:12">
       <c r="L195" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="12:12">
       <c r="L196" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="12:12">
       <c r="L197" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="12:12">
       <c r="L198" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="12:12">
       <c r="L199" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="12:12">
       <c r="L200" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="12:12">
       <c r="L201" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="12:12">
       <c r="L202" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="12:12">
       <c r="L203" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="12:12">
       <c r="L204" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="12:12">
       <c r="L205" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="12:12">
       <c r="L206" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="12:12">
       <c r="L207" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="12:12">
       <c r="L208" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="12:12">
       <c r="L209" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="12:12">
       <c r="L210" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="12:12">
       <c r="L211" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="12:12">
       <c r="L212" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="12:12">
       <c r="L213" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="12:12">
       <c r="L214" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="12:12">
       <c r="L215" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="12:12">
       <c r="L216" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="12:12">
       <c r="L217" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="12:12">
       <c r="L218" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="12:12">
       <c r="L219" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="12:12">
       <c r="L220" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="12:12">
       <c r="L221" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="12:12">
       <c r="L222" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="12:12">
       <c r="L223" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="12:12">
       <c r="L224" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="12:12">
       <c r="L225" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="12:12">
       <c r="L226" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="12:12">
       <c r="L227" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="12:12">
       <c r="L228" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="12:12">
       <c r="L229" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="12:12">
       <c r="L230" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="12:12">
       <c r="L231" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="12:12">
       <c r="L232" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="12:12">
       <c r="L233" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="12:12">
       <c r="L234" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="12:12">
       <c r="L235" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="12:12">
       <c r="L236" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="12:12">
       <c r="L237" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="12:12">
       <c r="L238" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="12:12">
       <c r="L239" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="12:12">
       <c r="L240" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="12:12">
       <c r="L241" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="12:12">
       <c r="L242" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="12:12">
       <c r="L243" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="12:12">
       <c r="L244" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="12:12">
       <c r="L245" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="12:12">
       <c r="L246" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="12:12">
       <c r="L247" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="12:12">
       <c r="L248" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="12:12">
       <c r="L249" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="12:12">
       <c r="L250" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="12:12">
       <c r="L251" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="12:12">
       <c r="L252" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="12:12">
       <c r="L253" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="12:12">
       <c r="L254" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="12:12">
       <c r="L255" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256" spans="12:12">
       <c r="L256" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="12:12">
       <c r="L257" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="12:12">
       <c r="L258" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="12:12">
       <c r="L259" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="12:12">
       <c r="L260" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="261" spans="12:12">
       <c r="L261" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="262" spans="12:12">
       <c r="L262" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="12:12">
       <c r="L263" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="264" spans="12:12">
       <c r="L264" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="12:12">
       <c r="L265" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="12:12">
       <c r="L266" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="12:12">
       <c r="L267" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="12:12">
       <c r="L268" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="12:12">
       <c r="L269" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="12:12">
       <c r="L270" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="12:12">
       <c r="L271" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="12:12">
       <c r="L272" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="12:12">
       <c r="L273" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="12:12">
       <c r="L274" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="12:12">
       <c r="L275" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="12:12">
       <c r="L276" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="12:12">
       <c r="L277" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="278" spans="12:12">
       <c r="L278" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="12:12">
       <c r="L279" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="12:12">
       <c r="L280" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="12:12">
       <c r="L281" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="12:12">
       <c r="L282" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="283" spans="12:12">
       <c r="L283" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="12:12">
       <c r="L284" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="12:12">
       <c r="L285" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="12:12">
       <c r="L286" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="287" spans="12:12">
       <c r="L287" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -17,13 +17,13 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="experimentalfactor1">'cv_sample'!$AG$1:$AG$35</definedName>
-    <definedName name="experimentalfactor2">'cv_sample'!$AH$1:$AH$35</definedName>
-    <definedName name="experimentalfactor3">'cv_sample'!$AI$1:$AI$35</definedName>
-    <definedName name="experimentalfactor4">'cv_sample'!$AJ$1:$AJ$35</definedName>
-    <definedName name="experimentalfactor5">'cv_sample'!$AK$1:$AK$35</definedName>
+    <definedName name="experimentalfactor1">'cv_sample'!$AC$1:$AC$35</definedName>
+    <definedName name="experimentalfactor2">'cv_sample'!$AD$1:$AD$35</definedName>
+    <definedName name="experimentalfactor3">'cv_sample'!$AE$1:$AE$35</definedName>
+    <definedName name="experimentalfactor4">'cv_sample'!$AF$1:$AF$35</definedName>
+    <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$L$1:$L$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="631">
   <si>
     <t>alias</t>
   </si>
@@ -863,1069 +863,1072 @@
     <t>(Optional) The name of the disease causing/contaminating organism; the value can also be ‘control’.</t>
   </si>
   <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>sampling time point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>initial time point</t>
+  </si>
+  <si>
+    <t>(Optional) The first time point measured at the start of some process.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>(Recommended) Age of the organism the sample was derived from.</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>(Optional) Where possible, please use the experimental factor ontology (efo) to describe your phenotypes.</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>(Optional) The part of a cell or its extracellular environment in which a gene product is located.</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>(Optional) An individual used a specimen in an experiment, from which a material sample was derived.</t>
+  </si>
+  <si>
+    <t>disease staging</t>
+  </si>
+  <si>
+    <t>(Optional) The stage or progression of a disease in an organism. includes pathological staging of cancers and other disease progression. e.g. dukes c stage describing colon cancer (efo_0000410).</t>
+  </si>
+  <si>
+    <t>immunoprecipitate</t>
+  </si>
+  <si>
+    <t>(Optional) The precipitate antibody bound target molecules generated when precipitating an antigen out of a solution during the process of immunoprecipitation.</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t>(Optional) A role played by a biological sample in the context of an experiment where the intent is that biological or technical variation is measured.</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>(Optional) Cultivar (cultivated variety) of plant from which sample was obtained</t>
+  </si>
+  <si>
+    <t>ecotype</t>
+  </si>
+  <si>
+    <t>(Optional) A population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat.</t>
+  </si>
+  <si>
+    <t>cell_line</t>
+  </si>
+  <si>
+    <t>(Optional) Cell line from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the strain from which the sample was obtained.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>(Optional) The duration in which the treatment has occurred.</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>(Optional) The total quantity or strength of a substance administered at one time.</t>
+  </si>
+  <si>
+    <t>chemical compound</t>
+  </si>
+  <si>
+    <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>cell line</t>
+  </si>
+  <si>
+    <t>cell type</t>
+  </si>
+  <si>
+    <t>environmental history</t>
+  </si>
+  <si>
+    <t>environmental stress</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>growth condition</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>protein-bound</t>
+  </si>
+  <si>
     <t>protocol</t>
   </si>
   <si>
+    <t>rnase</t>
+  </si>
+  <si>
+    <t>sample type</t>
+  </si>
+  <si>
+    <t>sampling site</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>transgene</t>
+  </si>
+  <si>
+    <t>experimental factor 1</t>
+  </si>
+  <si>
+    <t>(Optional) A variable that the experiment is based on.</t>
+  </si>
+  <si>
+    <t>experimental factor 2</t>
+  </si>
+  <si>
+    <t>experimental factor 3</t>
+  </si>
+  <si>
+    <t>experimental factor 4</t>
+  </si>
+  <si>
+    <t>experimental factor 5</t>
+  </si>
+  <si>
+    <t>(Optional) A block or batch is an experimental unit arrangement into a group which is similar to one another. typically, a blocking factor is a source of variability that is not of primary interest to the experimenter. an example of a blocking factor might be the sex of a patient; by blocking on sex, this source of variability is controlled for, thus leading to greater accuracy (efo_0005067).</t>
+  </si>
+  <si>
+    <t>(Recommended) Name or code for genotype of organism</t>
+  </si>
+  <si>
+    <t>genetic modification</t>
+  </si>
+  <si>
+    <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
+  </si>
+  <si>
     <t>(Optional) The laboratory method used to reveal the presence of the sample sequenced in the experiment.</t>
   </si>
   <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Optional) </t>
-  </si>
-  <si>
-    <t>initial time point</t>
-  </si>
-  <si>
-    <t>(Optional) The first time point measured at the start of some process.</t>
-  </si>
-  <si>
-    <t>growth condition</t>
+    <t>(Optional) Environmental stress is a treatment where some aspect of the environment is perturbed in order to stress the organism or culture, e.g. change in temperature, change in watering regime.</t>
+  </si>
+  <si>
+    <t>(Optional) Information concerning the envinonrment a material entity has been exposed to, such as an organism from a lake.</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>(Recommended) Name or code for genotype of organism</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>(Recommended) Age of the organism the sample was derived from.</t>
-  </si>
-  <si>
-    <t>genetic modification</t>
-  </si>
-  <si>
-    <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>(Optional) Where possible, please use the experimental factor ontology (efo) to describe your phenotypes.</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>(Optional) The part of a cell or its extracellular environment in which a gene product is located.</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>(Optional) An individual used a specimen in an experiment, from which a material sample was derived.</t>
-  </si>
-  <si>
-    <t>disease staging</t>
-  </si>
-  <si>
-    <t>(Optional) The stage or progression of a disease in an organism. includes pathological staging of cancers and other disease progression. e.g. dukes c stage describing colon cancer (efo_0000410).</t>
-  </si>
-  <si>
-    <t>immunoprecipitate</t>
-  </si>
-  <si>
-    <t>(Optional) The precipitate antibody bound target molecules generated when precipitating an antigen out of a solution during the process of immunoprecipitation.</t>
-  </si>
-  <si>
-    <t>replicate</t>
-  </si>
-  <si>
-    <t>(Optional) A role played by a a biological sample in the context of an experiment where the intent is that biological or technical variation is measured.</t>
-  </si>
-  <si>
-    <t>cultivar</t>
-  </si>
-  <si>
-    <t>(Optional) Cultivar (cultivated variety) of plant from which sample was obtained</t>
-  </si>
-  <si>
-    <t>ecotype</t>
-  </si>
-  <si>
-    <t>(Optional) A population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat.</t>
-  </si>
-  <si>
-    <t>cell_line</t>
-  </si>
-  <si>
-    <t>(Optional) Cell line from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the strain from which the sample was obtained.</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>(Optional) The duration in which the treatment has occurred.</t>
-  </si>
-  <si>
-    <t>dose</t>
-  </si>
-  <si>
-    <t>(Optional) The total quantity or strength of a substance administered at one time.</t>
-  </si>
-  <si>
-    <t>chemical compound</t>
-  </si>
-  <si>
-    <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>cell line</t>
-  </si>
-  <si>
-    <t>cell type</t>
-  </si>
-  <si>
-    <t>environmental history</t>
-  </si>
-  <si>
-    <t>environmental stress</t>
-  </si>
-  <si>
-    <t>organism</t>
-  </si>
-  <si>
-    <t>protein-bound</t>
-  </si>
-  <si>
-    <t>rnase</t>
-  </si>
-  <si>
-    <t>sample type</t>
-  </si>
-  <si>
-    <t>sampling site</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>transgene</t>
-  </si>
-  <si>
-    <t>experimental factor 1</t>
-  </si>
-  <si>
-    <t>(Optional) A variable that the experiment is based on.</t>
-  </si>
-  <si>
-    <t>experimental factor 2</t>
-  </si>
-  <si>
-    <t>experimental factor 3</t>
-  </si>
-  <si>
-    <t>experimental factor 4</t>
-  </si>
-  <si>
-    <t>experimental factor 5</t>
-  </si>
-  <si>
-    <t>(Optional) A block or batch is an experimental unit arrangement into a group which is similar to one another. typically, a blocking factor is a source of variability that is not of primary interest to the experimenter. an example of a blocking factor might be the sex of a patient; by blocking on sex, this source of variability is controlled for, thus leading to greater accuracy (efo_0005067).</t>
-  </si>
-  <si>
-    <t>(Optional) Environmental stress is a treatment where some aspect of the environment is perturbed in order to stress the organism or culture, e.g. change in temperature, change in watering regime.</t>
-  </si>
-  <si>
-    <t>(Optional) Information concerning the envinonrment a material entity has been exposed to, such as an organism from a lake.</t>
   </si>
 </sst>
 </file>
@@ -3480,94 +3483,94 @@
         <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>565</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="AI1" s="1" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>625</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3602,114 +3605,114 @@
         <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>566</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>experimentalfactor1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>experimentalfactor2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>experimentalfactor3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>experimentalfactor4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
       <formula1>experimentalfactor5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3719,1970 +3722,1975 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:AK287"/>
+  <dimension ref="K1:AG288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="12:37">
-      <c r="L1" t="s">
+    <row r="1" spans="11:33">
+      <c r="K1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="11:33">
+      <c r="K2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="11:33">
+      <c r="K3" t="s">
         <v>279</v>
       </c>
-      <c r="AG1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" spans="12:37">
-      <c r="L2" t="s">
+      <c r="AC3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="11:33">
+      <c r="K4" t="s">
         <v>280</v>
       </c>
-      <c r="AG2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="12:37">
-      <c r="L3" t="s">
+      <c r="AC4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="11:33">
+      <c r="K5" t="s">
         <v>281</v>
       </c>
-      <c r="AG3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>609</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="4" spans="12:37">
-      <c r="L4" t="s">
+      <c r="AC5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="11:33">
+      <c r="K6" t="s">
         <v>282</v>
       </c>
-      <c r="AG4" t="s">
-        <v>610</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>610</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>610</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="12:37">
-      <c r="L5" t="s">
+      <c r="AC6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="11:33">
+      <c r="K7" t="s">
         <v>283</v>
       </c>
-      <c r="AG5" t="s">
-        <v>611</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>611</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>611</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>611</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="6" spans="12:37">
-      <c r="L6" t="s">
+      <c r="AC7" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="11:33">
+      <c r="K8" t="s">
         <v>284</v>
       </c>
-      <c r="AG6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="7" spans="12:37">
-      <c r="L7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>594</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>594</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>594</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="12:37">
-      <c r="L8" t="s">
-        <v>286</v>
+      <c r="AC8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>267</v>
       </c>
       <c r="AG8" t="s">
         <v>267</v>
       </c>
-      <c r="AH8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="12:37">
-      <c r="L9" t="s">
+    </row>
+    <row r="9" spans="11:33">
+      <c r="K9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="11:33">
+      <c r="K10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="11:33">
+      <c r="K11" t="s">
         <v>287</v>
       </c>
-      <c r="AG9" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>588</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>588</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>588</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="10" spans="12:37">
-      <c r="L10" t="s">
+      <c r="AC11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="11:33">
+      <c r="K12" t="s">
         <v>288</v>
       </c>
-      <c r="AG10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>604</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" spans="12:37">
-      <c r="L11" t="s">
+      <c r="AC12" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="11:33">
+      <c r="K13" t="s">
         <v>289</v>
       </c>
-      <c r="AG11" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>596</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>596</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>596</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="12:37">
-      <c r="L12" t="s">
+      <c r="AC13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="11:33">
+      <c r="K14" t="s">
         <v>290</v>
       </c>
-      <c r="AG12" t="s">
-        <v>612</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>612</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>612</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>612</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" spans="12:37">
-      <c r="L13" t="s">
+      <c r="AC14" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="11:33">
+      <c r="K15" t="s">
         <v>291</v>
       </c>
-      <c r="AG13" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>613</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>613</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>613</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="14" spans="12:37">
-      <c r="L14" t="s">
+      <c r="AC15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="11:33">
+      <c r="K16" t="s">
         <v>292</v>
       </c>
-      <c r="AG14" t="s">
-        <v>574</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>574</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>574</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>574</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="12:37">
-      <c r="L15" t="s">
+      <c r="AC16" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>583</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="11:33">
+      <c r="K17" t="s">
         <v>293</v>
       </c>
-      <c r="AG15" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>572</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>572</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>572</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="16" spans="12:37">
-      <c r="L16" t="s">
+      <c r="AC17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="11:33">
+      <c r="K18" t="s">
         <v>294</v>
       </c>
-      <c r="AG16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="17" spans="12:37">
-      <c r="L17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>586</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>586</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>586</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="12:37">
-      <c r="L18" t="s">
-        <v>296</v>
+      <c r="AC18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>273</v>
       </c>
       <c r="AG18" t="s">
         <v>273</v>
       </c>
-      <c r="AH18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="12:37">
-      <c r="L19" t="s">
+    </row>
+    <row r="19" spans="11:33">
+      <c r="K19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="11:33">
+      <c r="K20" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="11:33">
+      <c r="K21" t="s">
         <v>297</v>
       </c>
-      <c r="AG19" t="s">
-        <v>570</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>570</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>570</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>570</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="20" spans="12:37">
-      <c r="L20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>614</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>614</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>614</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="12:37">
-      <c r="L21" t="s">
-        <v>299</v>
+      <c r="AC21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>269</v>
       </c>
       <c r="AG21" t="s">
         <v>269</v>
       </c>
-      <c r="AH21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="12:37">
-      <c r="L22" t="s">
-        <v>300</v>
+    </row>
+    <row r="22" spans="11:33">
+      <c r="K22" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>575</v>
       </c>
       <c r="AG22" t="s">
-        <v>582</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>582</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>582</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>582</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="12:37">
-      <c r="L23" t="s">
-        <v>301</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="11:33">
+      <c r="K23" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>271</v>
       </c>
       <c r="AG23" t="s">
         <v>271</v>
       </c>
-      <c r="AH23" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="12:37">
-      <c r="L24" t="s">
+    </row>
+    <row r="24" spans="11:33">
+      <c r="K24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="11:33">
+      <c r="K25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="11:33">
+      <c r="K26" t="s">
         <v>302</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AC26" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>585</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="11:33">
+      <c r="K27" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>612</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="11:33">
+      <c r="K28" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="11:33">
+      <c r="K29" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>614</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>614</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="11:33">
+      <c r="K30" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="11:33">
+      <c r="K31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="11:33">
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="11:33">
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC33" t="s">
         <v>615</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AD33" t="s">
         <v>615</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AE33" t="s">
         <v>615</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AF33" t="s">
         <v>615</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AG33" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="12:37">
-      <c r="L25" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="12:37">
-      <c r="L26" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>592</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>592</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>592</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>592</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="12:37">
-      <c r="L27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG27" t="s">
+    <row r="34" spans="11:33">
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="11:33">
+      <c r="K35" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC35" t="s">
         <v>616</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AD35" t="s">
         <v>616</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AE35" t="s">
         <v>616</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AF35" t="s">
         <v>616</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AG35" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="28" spans="12:37">
-      <c r="L28" t="s">
-        <v>306</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="29" spans="12:37">
-      <c r="L29" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>618</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>618</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>618</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>618</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="30" spans="12:37">
-      <c r="L30" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="31" spans="12:37">
-      <c r="L31" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>576</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>576</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>576</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="12:37">
-      <c r="L32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>600</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="12:37">
-      <c r="L33" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>619</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>619</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>619</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="34" spans="12:37">
-      <c r="L34" t="s">
+    <row r="36" spans="11:33">
+      <c r="K36" t="s">
         <v>312</v>
       </c>
-      <c r="AG34" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" spans="12:37">
-      <c r="L35" t="s">
+    </row>
+    <row r="37" spans="11:33">
+      <c r="K37" t="s">
         <v>313</v>
       </c>
-      <c r="AG35" t="s">
-        <v>620</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>620</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>620</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>620</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="36" spans="12:37">
-      <c r="L36" t="s">
+    </row>
+    <row r="38" spans="11:33">
+      <c r="K38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="12:37">
-      <c r="L37" t="s">
+    <row r="39" spans="11:33">
+      <c r="K39" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="12:37">
-      <c r="L38" t="s">
+    <row r="40" spans="11:33">
+      <c r="K40" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="12:37">
-      <c r="L39" t="s">
+    <row r="41" spans="11:33">
+      <c r="K41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="12:37">
-      <c r="L40" t="s">
+    <row r="42" spans="11:33">
+      <c r="K42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="12:37">
-      <c r="L41" t="s">
+    <row r="43" spans="11:33">
+      <c r="K43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="12:37">
-      <c r="L42" t="s">
+    <row r="44" spans="11:33">
+      <c r="K44" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="12:37">
-      <c r="L43" t="s">
+    <row r="45" spans="11:33">
+      <c r="K45" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="12:37">
-      <c r="L44" t="s">
+    <row r="46" spans="11:33">
+      <c r="K46" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="12:37">
-      <c r="L45" t="s">
+    <row r="47" spans="11:33">
+      <c r="K47" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="12:37">
-      <c r="L46" t="s">
+    <row r="48" spans="11:33">
+      <c r="K48" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="12:37">
-      <c r="L47" t="s">
+    <row r="49" spans="11:11">
+      <c r="K49" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="12:37">
-      <c r="L48" t="s">
+    <row r="50" spans="11:11">
+      <c r="K50" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="12:12">
-      <c r="L49" t="s">
+    <row r="51" spans="11:11">
+      <c r="K51" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="12:12">
-      <c r="L50" t="s">
+    <row r="52" spans="11:11">
+      <c r="K52" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="12:12">
-      <c r="L51" t="s">
+    <row r="53" spans="11:11">
+      <c r="K53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="12:12">
-      <c r="L52" t="s">
+    <row r="54" spans="11:11">
+      <c r="K54" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="12:12">
-      <c r="L53" t="s">
+    <row r="55" spans="11:11">
+      <c r="K55" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="12:12">
-      <c r="L54" t="s">
+    <row r="56" spans="11:11">
+      <c r="K56" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="12:12">
-      <c r="L55" t="s">
+    <row r="57" spans="11:11">
+      <c r="K57" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="12:12">
-      <c r="L56" t="s">
+    <row r="58" spans="11:11">
+      <c r="K58" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="12:12">
-      <c r="L57" t="s">
+    <row r="59" spans="11:11">
+      <c r="K59" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="12:12">
-      <c r="L58" t="s">
+    <row r="60" spans="11:11">
+      <c r="K60" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="12:12">
-      <c r="L59" t="s">
+    <row r="61" spans="11:11">
+      <c r="K61" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="12:12">
-      <c r="L60" t="s">
+    <row r="62" spans="11:11">
+      <c r="K62" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="12:12">
-      <c r="L61" t="s">
+    <row r="63" spans="11:11">
+      <c r="K63" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="12:12">
-      <c r="L62" t="s">
+    <row r="64" spans="11:11">
+      <c r="K64" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="63" spans="12:12">
-      <c r="L63" t="s">
+    <row r="65" spans="11:11">
+      <c r="K65" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="12:12">
-      <c r="L64" t="s">
+    <row r="66" spans="11:11">
+      <c r="K66" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="12:12">
-      <c r="L65" t="s">
+    <row r="67" spans="11:11">
+      <c r="K67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="66" spans="12:12">
-      <c r="L66" t="s">
+    <row r="68" spans="11:11">
+      <c r="K68" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="12:12">
-      <c r="L67" t="s">
+    <row r="69" spans="11:11">
+      <c r="K69" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="12:12">
-      <c r="L68" t="s">
+    <row r="70" spans="11:11">
+      <c r="K70" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="12:12">
-      <c r="L69" t="s">
+    <row r="71" spans="11:11">
+      <c r="K71" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="12:12">
-      <c r="L70" t="s">
+    <row r="72" spans="11:11">
+      <c r="K72" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="12:12">
-      <c r="L71" t="s">
+    <row r="73" spans="11:11">
+      <c r="K73" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="12:12">
-      <c r="L72" t="s">
+    <row r="74" spans="11:11">
+      <c r="K74" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="12:12">
-      <c r="L73" t="s">
+    <row r="75" spans="11:11">
+      <c r="K75" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="12:12">
-      <c r="L74" t="s">
+    <row r="76" spans="11:11">
+      <c r="K76" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="12:12">
-      <c r="L75" t="s">
+    <row r="77" spans="11:11">
+      <c r="K77" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="12:12">
-      <c r="L76" t="s">
+    <row r="78" spans="11:11">
+      <c r="K78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="12:12">
-      <c r="L77" t="s">
+    <row r="79" spans="11:11">
+      <c r="K79" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="12:12">
-      <c r="L78" t="s">
+    <row r="80" spans="11:11">
+      <c r="K80" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="12:12">
-      <c r="L79" t="s">
+    <row r="81" spans="11:11">
+      <c r="K81" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="12:12">
-      <c r="L80" t="s">
+    <row r="82" spans="11:11">
+      <c r="K82" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="12:12">
-      <c r="L81" t="s">
+    <row r="83" spans="11:11">
+      <c r="K83" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="12:12">
-      <c r="L82" t="s">
+    <row r="84" spans="11:11">
+      <c r="K84" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="12:12">
-      <c r="L83" t="s">
+    <row r="85" spans="11:11">
+      <c r="K85" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="12:12">
-      <c r="L84" t="s">
+    <row r="86" spans="11:11">
+      <c r="K86" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="12:12">
-      <c r="L85" t="s">
+    <row r="87" spans="11:11">
+      <c r="K87" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="12:12">
-      <c r="L86" t="s">
+    <row r="88" spans="11:11">
+      <c r="K88" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="87" spans="12:12">
-      <c r="L87" t="s">
+    <row r="89" spans="11:11">
+      <c r="K89" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="12:12">
-      <c r="L88" t="s">
+    <row r="90" spans="11:11">
+      <c r="K90" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="12:12">
-      <c r="L89" t="s">
+    <row r="91" spans="11:11">
+      <c r="K91" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="90" spans="12:12">
-      <c r="L90" t="s">
+    <row r="92" spans="11:11">
+      <c r="K92" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="12:12">
-      <c r="L91" t="s">
+    <row r="93" spans="11:11">
+      <c r="K93" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="12:12">
-      <c r="L92" t="s">
+    <row r="94" spans="11:11">
+      <c r="K94" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="12:12">
-      <c r="L93" t="s">
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="12:12">
-      <c r="L94" t="s">
+    <row r="96" spans="11:11">
+      <c r="K96" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="12:12">
-      <c r="L95" t="s">
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="12:12">
-      <c r="L96" t="s">
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="12:12">
-      <c r="L97" t="s">
+    <row r="99" spans="11:11">
+      <c r="K99" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="98" spans="12:12">
-      <c r="L98" t="s">
+    <row r="100" spans="11:11">
+      <c r="K100" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="12:12">
-      <c r="L99" t="s">
+    <row r="101" spans="11:11">
+      <c r="K101" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="100" spans="12:12">
-      <c r="L100" t="s">
+    <row r="102" spans="11:11">
+      <c r="K102" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="12:12">
-      <c r="L101" t="s">
+    <row r="103" spans="11:11">
+      <c r="K103" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="102" spans="12:12">
-      <c r="L102" t="s">
+    <row r="104" spans="11:11">
+      <c r="K104" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="103" spans="12:12">
-      <c r="L103" t="s">
+    <row r="105" spans="11:11">
+      <c r="K105" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="104" spans="12:12">
-      <c r="L104" t="s">
+    <row r="106" spans="11:11">
+      <c r="K106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="105" spans="12:12">
-      <c r="L105" t="s">
+    <row r="107" spans="11:11">
+      <c r="K107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="12:12">
-      <c r="L106" t="s">
+    <row r="108" spans="11:11">
+      <c r="K108" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="12:12">
-      <c r="L107" t="s">
+    <row r="109" spans="11:11">
+      <c r="K109" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="12:12">
-      <c r="L108" t="s">
+    <row r="110" spans="11:11">
+      <c r="K110" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="12:12">
-      <c r="L109" t="s">
+    <row r="111" spans="11:11">
+      <c r="K111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="110" spans="12:12">
-      <c r="L110" t="s">
+    <row r="112" spans="11:11">
+      <c r="K112" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="111" spans="12:12">
-      <c r="L111" t="s">
+    <row r="113" spans="11:11">
+      <c r="K113" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="112" spans="12:12">
-      <c r="L112" t="s">
+    <row r="114" spans="11:11">
+      <c r="K114" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="12:12">
-      <c r="L113" t="s">
+    <row r="115" spans="11:11">
+      <c r="K115" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="114" spans="12:12">
-      <c r="L114" t="s">
+    <row r="116" spans="11:11">
+      <c r="K116" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="115" spans="12:12">
-      <c r="L115" t="s">
+    <row r="117" spans="11:11">
+      <c r="K117" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="12:12">
-      <c r="L116" t="s">
+    <row r="118" spans="11:11">
+      <c r="K118" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="117" spans="12:12">
-      <c r="L117" t="s">
+    <row r="119" spans="11:11">
+      <c r="K119" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="118" spans="12:12">
-      <c r="L118" t="s">
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="119" spans="12:12">
-      <c r="L119" t="s">
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="120" spans="12:12">
-      <c r="L120" t="s">
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="121" spans="12:12">
-      <c r="L121" t="s">
+    <row r="123" spans="11:11">
+      <c r="K123" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="12:12">
-      <c r="L122" t="s">
+    <row r="124" spans="11:11">
+      <c r="K124" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="12:12">
-      <c r="L123" t="s">
+    <row r="125" spans="11:11">
+      <c r="K125" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="12:12">
-      <c r="L124" t="s">
+    <row r="126" spans="11:11">
+      <c r="K126" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="12:12">
-      <c r="L125" t="s">
+    <row r="127" spans="11:11">
+      <c r="K127" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="126" spans="12:12">
-      <c r="L126" t="s">
+    <row r="128" spans="11:11">
+      <c r="K128" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="12:12">
-      <c r="L127" t="s">
+    <row r="129" spans="11:11">
+      <c r="K129" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="12:12">
-      <c r="L128" t="s">
+    <row r="130" spans="11:11">
+      <c r="K130" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="12:12">
-      <c r="L129" t="s">
+    <row r="131" spans="11:11">
+      <c r="K131" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="12:12">
-      <c r="L130" t="s">
+    <row r="132" spans="11:11">
+      <c r="K132" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="131" spans="12:12">
-      <c r="L131" t="s">
+    <row r="133" spans="11:11">
+      <c r="K133" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="132" spans="12:12">
-      <c r="L132" t="s">
+    <row r="134" spans="11:11">
+      <c r="K134" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="133" spans="12:12">
-      <c r="L133" t="s">
+    <row r="135" spans="11:11">
+      <c r="K135" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="12:12">
-      <c r="L134" t="s">
+    <row r="136" spans="11:11">
+      <c r="K136" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="12:12">
-      <c r="L135" t="s">
+    <row r="137" spans="11:11">
+      <c r="K137" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="12:12">
-      <c r="L136" t="s">
+    <row r="138" spans="11:11">
+      <c r="K138" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="12:12">
-      <c r="L137" t="s">
+    <row r="139" spans="11:11">
+      <c r="K139" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="12:12">
-      <c r="L138" t="s">
+    <row r="140" spans="11:11">
+      <c r="K140" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="139" spans="12:12">
-      <c r="L139" t="s">
+    <row r="141" spans="11:11">
+      <c r="K141" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="12:12">
-      <c r="L140" t="s">
+    <row r="142" spans="11:11">
+      <c r="K142" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="12:12">
-      <c r="L141" t="s">
+    <row r="143" spans="11:11">
+      <c r="K143" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="12:12">
-      <c r="L142" t="s">
+    <row r="144" spans="11:11">
+      <c r="K144" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="12:12">
-      <c r="L143" t="s">
+    <row r="145" spans="11:11">
+      <c r="K145" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="12:12">
-      <c r="L144" t="s">
+    <row r="146" spans="11:11">
+      <c r="K146" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="145" spans="12:12">
-      <c r="L145" t="s">
+    <row r="147" spans="11:11">
+      <c r="K147" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="12:12">
-      <c r="L146" t="s">
+    <row r="148" spans="11:11">
+      <c r="K148" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="147" spans="12:12">
-      <c r="L147" t="s">
+    <row r="149" spans="11:11">
+      <c r="K149" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="12:12">
-      <c r="L148" t="s">
+    <row r="150" spans="11:11">
+      <c r="K150" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="149" spans="12:12">
-      <c r="L149" t="s">
+    <row r="151" spans="11:11">
+      <c r="K151" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="150" spans="12:12">
-      <c r="L150" t="s">
+    <row r="152" spans="11:11">
+      <c r="K152" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="151" spans="12:12">
-      <c r="L151" t="s">
+    <row r="153" spans="11:11">
+      <c r="K153" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="152" spans="12:12">
-      <c r="L152" t="s">
+    <row r="154" spans="11:11">
+      <c r="K154" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="12:12">
-      <c r="L153" t="s">
+    <row r="155" spans="11:11">
+      <c r="K155" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="154" spans="12:12">
-      <c r="L154" t="s">
+    <row r="156" spans="11:11">
+      <c r="K156" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="155" spans="12:12">
-      <c r="L155" t="s">
+    <row r="157" spans="11:11">
+      <c r="K157" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="156" spans="12:12">
-      <c r="L156" t="s">
+    <row r="158" spans="11:11">
+      <c r="K158" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="157" spans="12:12">
-      <c r="L157" t="s">
+    <row r="159" spans="11:11">
+      <c r="K159" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="12:12">
-      <c r="L158" t="s">
+    <row r="160" spans="11:11">
+      <c r="K160" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="159" spans="12:12">
-      <c r="L159" t="s">
+    <row r="161" spans="11:11">
+      <c r="K161" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="160" spans="12:12">
-      <c r="L160" t="s">
+    <row r="162" spans="11:11">
+      <c r="K162" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="161" spans="12:12">
-      <c r="L161" t="s">
+    <row r="163" spans="11:11">
+      <c r="K163" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="162" spans="12:12">
-      <c r="L162" t="s">
+    <row r="164" spans="11:11">
+      <c r="K164" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="163" spans="12:12">
-      <c r="L163" t="s">
+    <row r="165" spans="11:11">
+      <c r="K165" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="164" spans="12:12">
-      <c r="L164" t="s">
+    <row r="166" spans="11:11">
+      <c r="K166" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="12:12">
-      <c r="L165" t="s">
+    <row r="167" spans="11:11">
+      <c r="K167" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="166" spans="12:12">
-      <c r="L166" t="s">
+    <row r="168" spans="11:11">
+      <c r="K168" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="167" spans="12:12">
-      <c r="L167" t="s">
+    <row r="169" spans="11:11">
+      <c r="K169" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="12:12">
-      <c r="L168" t="s">
+    <row r="170" spans="11:11">
+      <c r="K170" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="12:12">
-      <c r="L169" t="s">
+    <row r="171" spans="11:11">
+      <c r="K171" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="170" spans="12:12">
-      <c r="L170" t="s">
+    <row r="172" spans="11:11">
+      <c r="K172" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="171" spans="12:12">
-      <c r="L171" t="s">
+    <row r="173" spans="11:11">
+      <c r="K173" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="172" spans="12:12">
-      <c r="L172" t="s">
+    <row r="174" spans="11:11">
+      <c r="K174" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="12:12">
-      <c r="L173" t="s">
+    <row r="175" spans="11:11">
+      <c r="K175" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="174" spans="12:12">
-      <c r="L174" t="s">
+    <row r="176" spans="11:11">
+      <c r="K176" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="175" spans="12:12">
-      <c r="L175" t="s">
+    <row r="177" spans="11:11">
+      <c r="K177" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="176" spans="12:12">
-      <c r="L176" t="s">
+    <row r="178" spans="11:11">
+      <c r="K178" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="177" spans="12:12">
-      <c r="L177" t="s">
+    <row r="179" spans="11:11">
+      <c r="K179" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="178" spans="12:12">
-      <c r="L178" t="s">
+    <row r="180" spans="11:11">
+      <c r="K180" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="179" spans="12:12">
-      <c r="L179" t="s">
+    <row r="181" spans="11:11">
+      <c r="K181" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="180" spans="12:12">
-      <c r="L180" t="s">
+    <row r="182" spans="11:11">
+      <c r="K182" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="181" spans="12:12">
-      <c r="L181" t="s">
+    <row r="183" spans="11:11">
+      <c r="K183" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="182" spans="12:12">
-      <c r="L182" t="s">
+    <row r="184" spans="11:11">
+      <c r="K184" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="12:12">
-      <c r="L183" t="s">
+    <row r="185" spans="11:11">
+      <c r="K185" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="184" spans="12:12">
-      <c r="L184" t="s">
+    <row r="186" spans="11:11">
+      <c r="K186" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="185" spans="12:12">
-      <c r="L185" t="s">
+    <row r="187" spans="11:11">
+      <c r="K187" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="186" spans="12:12">
-      <c r="L186" t="s">
+    <row r="188" spans="11:11">
+      <c r="K188" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="187" spans="12:12">
-      <c r="L187" t="s">
+    <row r="189" spans="11:11">
+      <c r="K189" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="188" spans="12:12">
-      <c r="L188" t="s">
+    <row r="190" spans="11:11">
+      <c r="K190" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="189" spans="12:12">
-      <c r="L189" t="s">
+    <row r="191" spans="11:11">
+      <c r="K191" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="12:12">
-      <c r="L190" t="s">
+    <row r="192" spans="11:11">
+      <c r="K192" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="12:12">
-      <c r="L191" t="s">
+    <row r="193" spans="11:11">
+      <c r="K193" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="12:12">
-      <c r="L192" t="s">
+    <row r="194" spans="11:11">
+      <c r="K194" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="193" spans="12:12">
-      <c r="L193" t="s">
+    <row r="195" spans="11:11">
+      <c r="K195" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="194" spans="12:12">
-      <c r="L194" t="s">
+    <row r="196" spans="11:11">
+      <c r="K196" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="195" spans="12:12">
-      <c r="L195" t="s">
+    <row r="197" spans="11:11">
+      <c r="K197" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="196" spans="12:12">
-      <c r="L196" t="s">
+    <row r="198" spans="11:11">
+      <c r="K198" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="197" spans="12:12">
-      <c r="L197" t="s">
+    <row r="199" spans="11:11">
+      <c r="K199" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="198" spans="12:12">
-      <c r="L198" t="s">
+    <row r="200" spans="11:11">
+      <c r="K200" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="199" spans="12:12">
-      <c r="L199" t="s">
+    <row r="201" spans="11:11">
+      <c r="K201" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="200" spans="12:12">
-      <c r="L200" t="s">
+    <row r="202" spans="11:11">
+      <c r="K202" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="201" spans="12:12">
-      <c r="L201" t="s">
+    <row r="203" spans="11:11">
+      <c r="K203" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="12:12">
-      <c r="L202" t="s">
+    <row r="204" spans="11:11">
+      <c r="K204" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="12:12">
-      <c r="L203" t="s">
+    <row r="205" spans="11:11">
+      <c r="K205" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="204" spans="12:12">
-      <c r="L204" t="s">
+    <row r="206" spans="11:11">
+      <c r="K206" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="205" spans="12:12">
-      <c r="L205" t="s">
+    <row r="207" spans="11:11">
+      <c r="K207" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="206" spans="12:12">
-      <c r="L206" t="s">
+    <row r="208" spans="11:11">
+      <c r="K208" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="207" spans="12:12">
-      <c r="L207" t="s">
+    <row r="209" spans="11:11">
+      <c r="K209" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="208" spans="12:12">
-      <c r="L208" t="s">
+    <row r="210" spans="11:11">
+      <c r="K210" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="209" spans="12:12">
-      <c r="L209" t="s">
+    <row r="211" spans="11:11">
+      <c r="K211" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="210" spans="12:12">
-      <c r="L210" t="s">
+    <row r="212" spans="11:11">
+      <c r="K212" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="211" spans="12:12">
-      <c r="L211" t="s">
+    <row r="213" spans="11:11">
+      <c r="K213" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="212" spans="12:12">
-      <c r="L212" t="s">
+    <row r="214" spans="11:11">
+      <c r="K214" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="213" spans="12:12">
-      <c r="L213" t="s">
+    <row r="215" spans="11:11">
+      <c r="K215" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="12:12">
-      <c r="L214" t="s">
+    <row r="216" spans="11:11">
+      <c r="K216" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="12:12">
-      <c r="L215" t="s">
+    <row r="217" spans="11:11">
+      <c r="K217" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="216" spans="12:12">
-      <c r="L216" t="s">
+    <row r="218" spans="11:11">
+      <c r="K218" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="217" spans="12:12">
-      <c r="L217" t="s">
+    <row r="219" spans="11:11">
+      <c r="K219" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="218" spans="12:12">
-      <c r="L218" t="s">
+    <row r="220" spans="11:11">
+      <c r="K220" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="219" spans="12:12">
-      <c r="L219" t="s">
+    <row r="221" spans="11:11">
+      <c r="K221" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="220" spans="12:12">
-      <c r="L220" t="s">
+    <row r="222" spans="11:11">
+      <c r="K222" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="221" spans="12:12">
-      <c r="L221" t="s">
+    <row r="223" spans="11:11">
+      <c r="K223" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="222" spans="12:12">
-      <c r="L222" t="s">
+    <row r="224" spans="11:11">
+      <c r="K224" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="12:12">
-      <c r="L223" t="s">
+    <row r="225" spans="11:11">
+      <c r="K225" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="224" spans="12:12">
-      <c r="L224" t="s">
+    <row r="226" spans="11:11">
+      <c r="K226" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="12:12">
-      <c r="L225" t="s">
+    <row r="227" spans="11:11">
+      <c r="K227" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="226" spans="12:12">
-      <c r="L226" t="s">
+    <row r="228" spans="11:11">
+      <c r="K228" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="227" spans="12:12">
-      <c r="L227" t="s">
+    <row r="229" spans="11:11">
+      <c r="K229" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="228" spans="12:12">
-      <c r="L228" t="s">
+    <row r="230" spans="11:11">
+      <c r="K230" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="229" spans="12:12">
-      <c r="L229" t="s">
+    <row r="231" spans="11:11">
+      <c r="K231" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="230" spans="12:12">
-      <c r="L230" t="s">
+    <row r="232" spans="11:11">
+      <c r="K232" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="231" spans="12:12">
-      <c r="L231" t="s">
+    <row r="233" spans="11:11">
+      <c r="K233" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="232" spans="12:12">
-      <c r="L232" t="s">
+    <row r="234" spans="11:11">
+      <c r="K234" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="233" spans="12:12">
-      <c r="L233" t="s">
+    <row r="235" spans="11:11">
+      <c r="K235" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="234" spans="12:12">
-      <c r="L234" t="s">
+    <row r="236" spans="11:11">
+      <c r="K236" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="235" spans="12:12">
-      <c r="L235" t="s">
+    <row r="237" spans="11:11">
+      <c r="K237" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="236" spans="12:12">
-      <c r="L236" t="s">
+    <row r="238" spans="11:11">
+      <c r="K238" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="237" spans="12:12">
-      <c r="L237" t="s">
+    <row r="239" spans="11:11">
+      <c r="K239" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="238" spans="12:12">
-      <c r="L238" t="s">
+    <row r="240" spans="11:11">
+      <c r="K240" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="239" spans="12:12">
-      <c r="L239" t="s">
+    <row r="241" spans="11:11">
+      <c r="K241" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="240" spans="12:12">
-      <c r="L240" t="s">
+    <row r="242" spans="11:11">
+      <c r="K242" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="241" spans="12:12">
-      <c r="L241" t="s">
+    <row r="243" spans="11:11">
+      <c r="K243" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="12:12">
-      <c r="L242" t="s">
+    <row r="244" spans="11:11">
+      <c r="K244" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="12:12">
-      <c r="L243" t="s">
+    <row r="245" spans="11:11">
+      <c r="K245" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="12:12">
-      <c r="L244" t="s">
+    <row r="246" spans="11:11">
+      <c r="K246" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="245" spans="12:12">
-      <c r="L245" t="s">
+    <row r="247" spans="11:11">
+      <c r="K247" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="12:12">
-      <c r="L246" t="s">
+    <row r="248" spans="11:11">
+      <c r="K248" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="247" spans="12:12">
-      <c r="L247" t="s">
+    <row r="249" spans="11:11">
+      <c r="K249" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="248" spans="12:12">
-      <c r="L248" t="s">
+    <row r="250" spans="11:11">
+      <c r="K250" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="249" spans="12:12">
-      <c r="L249" t="s">
+    <row r="251" spans="11:11">
+      <c r="K251" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="250" spans="12:12">
-      <c r="L250" t="s">
+    <row r="252" spans="11:11">
+      <c r="K252" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="251" spans="12:12">
-      <c r="L251" t="s">
+    <row r="253" spans="11:11">
+      <c r="K253" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="252" spans="12:12">
-      <c r="L252" t="s">
+    <row r="254" spans="11:11">
+      <c r="K254" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="253" spans="12:12">
-      <c r="L253" t="s">
+    <row r="255" spans="11:11">
+      <c r="K255" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="254" spans="12:12">
-      <c r="L254" t="s">
+    <row r="256" spans="11:11">
+      <c r="K256" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="255" spans="12:12">
-      <c r="L255" t="s">
+    <row r="257" spans="11:11">
+      <c r="K257" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="256" spans="12:12">
-      <c r="L256" t="s">
+    <row r="258" spans="11:11">
+      <c r="K258" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="12:12">
-      <c r="L257" t="s">
+    <row r="259" spans="11:11">
+      <c r="K259" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="258" spans="12:12">
-      <c r="L258" t="s">
+    <row r="260" spans="11:11">
+      <c r="K260" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="259" spans="12:12">
-      <c r="L259" t="s">
+    <row r="261" spans="11:11">
+      <c r="K261" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="260" spans="12:12">
-      <c r="L260" t="s">
+    <row r="262" spans="11:11">
+      <c r="K262" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="261" spans="12:12">
-      <c r="L261" t="s">
+    <row r="263" spans="11:11">
+      <c r="K263" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="262" spans="12:12">
-      <c r="L262" t="s">
+    <row r="264" spans="11:11">
+      <c r="K264" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="263" spans="12:12">
-      <c r="L263" t="s">
+    <row r="265" spans="11:11">
+      <c r="K265" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="264" spans="12:12">
-      <c r="L264" t="s">
+    <row r="266" spans="11:11">
+      <c r="K266" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="265" spans="12:12">
-      <c r="L265" t="s">
+    <row r="267" spans="11:11">
+      <c r="K267" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="266" spans="12:12">
-      <c r="L266" t="s">
+    <row r="268" spans="11:11">
+      <c r="K268" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="267" spans="12:12">
-      <c r="L267" t="s">
+    <row r="269" spans="11:11">
+      <c r="K269" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="268" spans="12:12">
-      <c r="L268" t="s">
+    <row r="270" spans="11:11">
+      <c r="K270" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="269" spans="12:12">
-      <c r="L269" t="s">
+    <row r="271" spans="11:11">
+      <c r="K271" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="270" spans="12:12">
-      <c r="L270" t="s">
+    <row r="272" spans="11:11">
+      <c r="K272" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="271" spans="12:12">
-      <c r="L271" t="s">
+    <row r="273" spans="11:11">
+      <c r="K273" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="272" spans="12:12">
-      <c r="L272" t="s">
+    <row r="274" spans="11:11">
+      <c r="K274" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="273" spans="12:12">
-      <c r="L273" t="s">
+    <row r="275" spans="11:11">
+      <c r="K275" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="274" spans="12:12">
-      <c r="L274" t="s">
+    <row r="276" spans="11:11">
+      <c r="K276" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="275" spans="12:12">
-      <c r="L275" t="s">
+    <row r="277" spans="11:11">
+      <c r="K277" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="276" spans="12:12">
-      <c r="L276" t="s">
+    <row r="278" spans="11:11">
+      <c r="K278" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="277" spans="12:12">
-      <c r="L277" t="s">
+    <row r="279" spans="11:11">
+      <c r="K279" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="278" spans="12:12">
-      <c r="L278" t="s">
+    <row r="280" spans="11:11">
+      <c r="K280" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="279" spans="12:12">
-      <c r="L279" t="s">
+    <row r="281" spans="11:11">
+      <c r="K281" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="12:12">
-      <c r="L280" t="s">
+    <row r="282" spans="11:11">
+      <c r="K282" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="281" spans="12:12">
-      <c r="L281" t="s">
+    <row r="283" spans="11:11">
+      <c r="K283" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="282" spans="12:12">
-      <c r="L282" t="s">
+    <row r="284" spans="11:11">
+      <c r="K284" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="283" spans="12:12">
-      <c r="L283" t="s">
+    <row r="285" spans="11:11">
+      <c r="K285" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="284" spans="12:12">
-      <c r="L284" t="s">
+    <row r="286" spans="11:11">
+      <c r="K286" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="285" spans="12:12">
-      <c r="L285" t="s">
+    <row r="287" spans="11:11">
+      <c r="K287" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="286" spans="12:12">
-      <c r="L286" t="s">
+    <row r="288" spans="11:11">
+      <c r="K288" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="287" spans="12:12">
-      <c r="L287" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -1061,10 +1061,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="632">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3459,240 +3462,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -3730,1967 +3733,1967 @@
   <sheetData>
     <row r="1" spans="11:33">
       <c r="K1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AE1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="11:33">
       <c r="K2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AD2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AE2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="11:33">
       <c r="K3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AE3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="11:33">
       <c r="K4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AE4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="11:33">
       <c r="K5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="11:33">
       <c r="K6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AD6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AE6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="11:33">
       <c r="K7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="11:33">
       <c r="K8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="11:33">
       <c r="K9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AD9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AE9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="11:33">
       <c r="K10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AE10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="11:33">
       <c r="K11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AD11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="11:33">
       <c r="K12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="11:33">
       <c r="K13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG13" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="11:33">
       <c r="K14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="11:33">
       <c r="K15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG15" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="11:33">
       <c r="K16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AE16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG16" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="11:33">
       <c r="K17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AD17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AE17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG17" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="11:33">
       <c r="K18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="11:33">
       <c r="K19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AD19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AE19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="11:33">
       <c r="K20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="11:33">
       <c r="K21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="11:33">
       <c r="K22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AD22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AE22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="11:33">
       <c r="K23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="11:33">
       <c r="K24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="11:33">
       <c r="K25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="11:33">
       <c r="K26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AD26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AE26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="11:33">
       <c r="K27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="11:33">
       <c r="K28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="11:33">
       <c r="K29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="11:33">
       <c r="K30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AD30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AE30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG30" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="11:33">
       <c r="K31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AD31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AE31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="11:33">
       <c r="K32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AD32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AE32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="11:33">
       <c r="K33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="11:33">
       <c r="K34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AE34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="11:33">
       <c r="K35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG35" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="11:33">
       <c r="K36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="11:33">
       <c r="K37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="11:33">
       <c r="K38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="11:33">
       <c r="K39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="11:33">
       <c r="K40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="11:33">
       <c r="K41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="11:33">
       <c r="K42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="11:33">
       <c r="K43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="11:33">
       <c r="K44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="11:33">
       <c r="K45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="11:33">
       <c r="K46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="11:33">
       <c r="K47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="11:33">
       <c r="K48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="11:11">
       <c r="K49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="11:11">
       <c r="K50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="11:11">
       <c r="K51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="11:11">
       <c r="K52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="11:11">
       <c r="K53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="11:11">
       <c r="K54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="11:11">
       <c r="K55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="11:11">
       <c r="K56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="11:11">
       <c r="K57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="11:11">
       <c r="K58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="11:11">
       <c r="K59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="11:11">
       <c r="K60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="11:11">
       <c r="K61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="11:11">
       <c r="K62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="11:11">
       <c r="K63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="11:11">
       <c r="K64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="11:11">
       <c r="K65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="11:11">
       <c r="K66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="11:11">
       <c r="K67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="11:11">
       <c r="K68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="11:11">
       <c r="K69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="11:11">
       <c r="K70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="11:11">
       <c r="K71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="11:11">
       <c r="K72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="11:11">
       <c r="K73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="11:11">
       <c r="K74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="11:11">
       <c r="K75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="11:11">
       <c r="K76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="11:11">
       <c r="K77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="11:11">
       <c r="K78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="11:11">
       <c r="K79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="11:11">
       <c r="K81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="11:11">
       <c r="K82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="11:11">
       <c r="K83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="11:11">
       <c r="K84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="11:11">
       <c r="K85" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="11:11">
       <c r="K86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="11:11">
       <c r="K87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="11:11">
       <c r="K88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="11:11">
       <c r="K89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="11:11">
       <c r="K90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="11:11">
       <c r="K91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="11:11">
       <c r="K92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="11:11">
       <c r="K93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="11:11">
       <c r="K94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="11:11">
       <c r="K95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="11:11">
       <c r="K96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="11:11">
       <c r="K97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="11:11">
       <c r="K99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="11:11">
       <c r="K100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="11:11">
       <c r="K101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="11:11">
       <c r="K102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="11:11">
       <c r="K103" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="11:11">
       <c r="K104" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="11:11">
       <c r="K105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="11:11">
       <c r="K106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="11:11">
       <c r="K107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="11:11">
       <c r="K109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="11:11">
       <c r="K111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="11:11">
       <c r="K112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="11:11">
       <c r="K113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="11:11">
       <c r="K114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="11:11">
       <c r="K115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="11:11">
       <c r="K116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="11:11">
       <c r="K117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="11:11">
       <c r="K118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="11:11">
       <c r="K125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="11:11">
       <c r="K126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="11:11">
       <c r="K128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="11:11">
       <c r="K129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="11:11">
       <c r="K130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="11:11">
       <c r="K132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="11:11">
       <c r="K134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="11:11">
       <c r="K135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="11:11">
       <c r="K136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="11:11">
       <c r="K137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="11:11">
       <c r="K138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="11:11">
       <c r="K139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="11:11">
       <c r="K140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="11:11">
       <c r="K141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="11:11">
       <c r="K142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="11:11">
       <c r="K143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="11:11">
       <c r="K144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="11:11">
       <c r="K145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="11:11">
       <c r="K146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="11:11">
       <c r="K147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="11:11">
       <c r="K148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="11:11">
       <c r="K149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="11:11">
       <c r="K150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="11:11">
       <c r="K151" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="11:11">
       <c r="K152" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="11:11">
       <c r="K153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="11:11">
       <c r="K154" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="11:11">
       <c r="K155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="11:11">
       <c r="K156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="11:11">
       <c r="K157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="11:11">
       <c r="K158" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="11:11">
       <c r="K159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="11:11">
       <c r="K160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="11:11">
       <c r="K161" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="11:11">
       <c r="K162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="11:11">
       <c r="K164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="11:11">
       <c r="K165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="11:11">
       <c r="K166" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="11:11">
       <c r="K167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="11:11">
       <c r="K168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="11:11">
       <c r="K169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="11:11">
       <c r="K170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="11:11">
       <c r="K171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="11:11">
       <c r="K172" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="11:11">
       <c r="K173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="11:11">
       <c r="K174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="11:11">
       <c r="K175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="11:11">
       <c r="K176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="11:11">
       <c r="K177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="11:11">
       <c r="K178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="11:11">
       <c r="K179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="11:11">
       <c r="K180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="11:11">
       <c r="K181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="11:11">
       <c r="K182" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="11:11">
       <c r="K183" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="11:11">
       <c r="K184" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="11:11">
       <c r="K185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" spans="11:11">
       <c r="K186" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="11:11">
       <c r="K187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="11:11">
       <c r="K188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="11:11">
       <c r="K189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="11:11">
       <c r="K190" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="11:11">
       <c r="K191" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="11:11">
       <c r="K192" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="11:11">
       <c r="K193" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="11:11">
       <c r="K194" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="11:11">
       <c r="K195" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="11:11">
       <c r="K196" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="11:11">
       <c r="K197" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="11:11">
       <c r="K198" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="11:11">
       <c r="K199" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="11:11">
       <c r="K200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="11:11">
       <c r="K201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="11:11">
       <c r="K202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="11:11">
       <c r="K203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="11:11">
       <c r="K204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="11:11">
       <c r="K205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="11:11">
       <c r="K206" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="11:11">
       <c r="K207" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="11:11">
       <c r="K208" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="11:11">
       <c r="K209" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" spans="11:11">
       <c r="K210" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="11:11">
       <c r="K211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="11:11">
       <c r="K212" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="11:11">
       <c r="K213" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="11:11">
       <c r="K214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="11:11">
       <c r="K215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="11:11">
       <c r="K216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="11:11">
       <c r="K217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="11:11">
       <c r="K218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="11:11">
       <c r="K219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="11:11">
       <c r="K220" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="11:11">
       <c r="K221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="11:11">
       <c r="K222" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="11:11">
       <c r="K223" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="11:11">
       <c r="K224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="225" spans="11:11">
       <c r="K225" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="11:11">
       <c r="K226" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="11:11">
       <c r="K227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="11:11">
       <c r="K228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="11:11">
       <c r="K229" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="11:11">
       <c r="K230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="11:11">
       <c r="K231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="11:11">
       <c r="K232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="11:11">
       <c r="K233" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="11:11">
       <c r="K234" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="11:11">
       <c r="K235" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="11:11">
       <c r="K236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="11:11">
       <c r="K237" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="11:11">
       <c r="K238" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="11:11">
       <c r="K239" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="11:11">
       <c r="K240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="11:11">
       <c r="K241" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="11:11">
       <c r="K242" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="11:11">
       <c r="K243" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="11:11">
       <c r="K244" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="11:11">
       <c r="K245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="11:11">
       <c r="K246" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="247" spans="11:11">
       <c r="K247" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="11:11">
       <c r="K248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="11:11">
       <c r="K249" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="250" spans="11:11">
       <c r="K250" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="251" spans="11:11">
       <c r="K251" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="11:11">
       <c r="K252" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="11:11">
       <c r="K253" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="11:11">
       <c r="K254" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="11:11">
       <c r="K255" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="11:11">
       <c r="K256" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="11:11">
       <c r="K257" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="11:11">
       <c r="K258" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="11:11">
       <c r="K259" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="11:11">
       <c r="K260" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="11:11">
       <c r="K261" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="11:11">
       <c r="K262" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="11:11">
       <c r="K263" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="11:11">
       <c r="K264" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="11:11">
       <c r="K265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="11:11">
       <c r="K266" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="11:11">
       <c r="K267" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="11:11">
       <c r="K268" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="11:11">
       <c r="K269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="11:11">
       <c r="K270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="11:11">
       <c r="K271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="11:11">
       <c r="K272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="11:11">
       <c r="K273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="11:11">
       <c r="K274" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="11:11">
       <c r="K275" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="11:11">
       <c r="K276" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="11:11">
       <c r="K277" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="11:11">
       <c r="K278" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="279" spans="11:11">
       <c r="K279" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="280" spans="11:11">
       <c r="K280" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="281" spans="11:11">
       <c r="K281" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="282" spans="11:11">
       <c r="K282" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="11:11">
       <c r="K283" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="284" spans="11:11">
       <c r="K284" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="11:11">
       <c r="K285" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="11:11">
       <c r="K286" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="11:11">
       <c r="K287" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="11:11">
       <c r="K288" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -116,7 +116,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -134,7 +134,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -23,7 +23,7 @@
     <definedName name="experimentalfactor4">'cv_sample'!$AF$1:$AF$35</definedName>
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="633">
   <si>
     <t>alias</t>
   </si>
@@ -872,6 +872,30 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>sampling time point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>initial time point</t>
+  </si>
+  <si>
+    <t>(Optional) The first time point measured at the start of some process.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>(Recommended) Age of the organism the sample was derived from.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1700,6 +1724,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1740,30 +1767,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
-    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
-  </si>
-  <si>
-    <t>initial time point</t>
-  </si>
-  <si>
-    <t>(Optional) The first time point measured at the start of some process.</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>(Recommended) Age of the organism the sample was derived from.</t>
   </si>
   <si>
     <t>phenotype</t>
@@ -3486,94 +3489,94 @@
         <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3608,99 +3611,99 @@
         <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
@@ -3725,155 +3728,155 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:AG288"/>
+  <dimension ref="O1:AG289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="11:33">
-      <c r="K1" t="s">
-        <v>278</v>
+    <row r="1" spans="15:33">
+      <c r="O1" t="s">
+        <v>286</v>
       </c>
       <c r="AC1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AE1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="2" spans="11:33">
-      <c r="K2" t="s">
-        <v>279</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="15:33">
+      <c r="O2" t="s">
+        <v>287</v>
       </c>
       <c r="AC2" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="AD2" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="AE2" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="AF2" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="AG2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="11:33">
-      <c r="K3" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="15:33">
+      <c r="O3" t="s">
+        <v>288</v>
       </c>
       <c r="AC3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AE3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="11:33">
-      <c r="K4" t="s">
-        <v>281</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="15:33">
+      <c r="O4" t="s">
+        <v>289</v>
       </c>
       <c r="AC4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="5" spans="11:33">
-      <c r="K5" t="s">
-        <v>282</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="15:33">
+      <c r="O5" t="s">
+        <v>290</v>
       </c>
       <c r="AC5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="6" spans="11:33">
-      <c r="K6" t="s">
-        <v>283</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="15:33">
+      <c r="O6" t="s">
+        <v>291</v>
       </c>
       <c r="AC6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AE6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="11:33">
-      <c r="K7" t="s">
-        <v>284</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="15:33">
+      <c r="O7" t="s">
+        <v>292</v>
       </c>
       <c r="AC7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AE7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" spans="11:33">
-      <c r="K8" t="s">
-        <v>285</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="15:33">
+      <c r="O8" t="s">
+        <v>293</v>
       </c>
       <c r="AC8" t="s">
         <v>268</v>
@@ -3891,189 +3894,189 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="11:33">
-      <c r="K9" t="s">
-        <v>286</v>
+    <row r="9" spans="15:33">
+      <c r="O9" t="s">
+        <v>294</v>
       </c>
       <c r="AC9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AD9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AE9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="11:33">
-      <c r="K10" t="s">
-        <v>287</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="15:33">
+      <c r="O10" t="s">
+        <v>295</v>
       </c>
       <c r="AC10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AD10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AE10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="11" spans="11:33">
-      <c r="K11" t="s">
-        <v>288</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="15:33">
+      <c r="O11" t="s">
+        <v>296</v>
       </c>
       <c r="AC11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AE11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="11:33">
-      <c r="K12" t="s">
-        <v>289</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="12" spans="15:33">
+      <c r="O12" t="s">
+        <v>297</v>
       </c>
       <c r="AC12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF12" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="11:33">
-      <c r="K13" t="s">
-        <v>290</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="15:33">
+      <c r="O13" t="s">
+        <v>298</v>
       </c>
       <c r="AC13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="11:33">
-      <c r="K14" t="s">
-        <v>291</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="15:33">
+      <c r="O14" t="s">
+        <v>299</v>
       </c>
       <c r="AC14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="11:33">
-      <c r="K15" t="s">
-        <v>292</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="15:33">
+      <c r="O15" t="s">
+        <v>300</v>
       </c>
       <c r="AC15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="11:33">
-      <c r="K16" t="s">
-        <v>293</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="15:33">
+      <c r="O16" t="s">
+        <v>301</v>
       </c>
       <c r="AC16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AD16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AE16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="11:33">
-      <c r="K17" t="s">
-        <v>294</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="15:33">
+      <c r="O17" t="s">
+        <v>302</v>
       </c>
       <c r="AC17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AD17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AE17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="11:33">
-      <c r="K18" t="s">
-        <v>295</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="15:33">
+      <c r="O18" t="s">
+        <v>303</v>
       </c>
       <c r="AC18" t="s">
         <v>274</v>
@@ -4091,49 +4094,49 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="11:33">
-      <c r="K19" t="s">
-        <v>296</v>
+    <row r="19" spans="15:33">
+      <c r="O19" t="s">
+        <v>304</v>
       </c>
       <c r="AC19" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="AD19" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="AE19" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="AG19" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="20" spans="11:33">
-      <c r="K20" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="15:33">
+      <c r="O20" t="s">
+        <v>305</v>
       </c>
       <c r="AC20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG20" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="21" spans="11:33">
-      <c r="K21" t="s">
-        <v>298</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="15:33">
+      <c r="O21" t="s">
+        <v>306</v>
       </c>
       <c r="AC21" t="s">
         <v>270</v>
@@ -4151,29 +4154,29 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="11:33">
-      <c r="K22" t="s">
-        <v>299</v>
+    <row r="22" spans="15:33">
+      <c r="O22" t="s">
+        <v>307</v>
       </c>
       <c r="AC22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AD22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AE22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="23" spans="11:33">
-      <c r="K23" t="s">
-        <v>300</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="15:33">
+      <c r="O23" t="s">
+        <v>308</v>
       </c>
       <c r="AC23" t="s">
         <v>272</v>
@@ -4191,1509 +4194,1514 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="11:33">
-      <c r="K24" t="s">
-        <v>301</v>
+    <row r="24" spans="15:33">
+      <c r="O24" t="s">
+        <v>309</v>
       </c>
       <c r="AC24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG24" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="25" spans="11:33">
-      <c r="K25" t="s">
-        <v>302</v>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="15:33">
+      <c r="O25" t="s">
+        <v>310</v>
       </c>
       <c r="AC25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG25" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="26" spans="11:33">
-      <c r="K26" t="s">
-        <v>303</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="26" spans="15:33">
+      <c r="O26" t="s">
+        <v>311</v>
       </c>
       <c r="AC26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AD26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AE26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG26" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="11:33">
-      <c r="K27" t="s">
-        <v>304</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="15:33">
+      <c r="O27" t="s">
+        <v>312</v>
       </c>
       <c r="AC27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG27" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="11:33">
-      <c r="K28" t="s">
-        <v>305</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="15:33">
+      <c r="O28" t="s">
+        <v>313</v>
       </c>
       <c r="AC28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG28" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="11:33">
-      <c r="K29" t="s">
-        <v>306</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="15:33">
+      <c r="O29" t="s">
+        <v>314</v>
       </c>
       <c r="AC29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF29" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG29" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="30" spans="11:33">
-      <c r="K30" t="s">
-        <v>307</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="15:33">
+      <c r="O30" t="s">
+        <v>315</v>
       </c>
       <c r="AC30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="15:33">
+      <c r="O31" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="15:33">
+      <c r="O32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="15:33">
+      <c r="O33" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="15:33">
+      <c r="O34" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="15:33">
+      <c r="O35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="15:33">
+      <c r="O36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="15:33">
+      <c r="O37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="15:33">
+      <c r="O38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="15:33">
+      <c r="O39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="15:33">
+      <c r="O40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="15:33">
+      <c r="O41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="15:33">
+      <c r="O42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="15:33">
+      <c r="O43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="15:33">
+      <c r="O44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="15:33">
+      <c r="O45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="15:33">
+      <c r="O46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="15:33">
+      <c r="O47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="15:33">
+      <c r="O48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="275" spans="15:15">
+      <c r="O275" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="276" spans="15:15">
+      <c r="O276" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="277" spans="15:15">
+      <c r="O277" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="278" spans="15:15">
+      <c r="O278" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" t="s">
         <v>568</v>
       </c>
-      <c r="AD30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="31" spans="11:33">
-      <c r="K31" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC31" t="s">
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" t="s">
         <v>572</v>
       </c>
-      <c r="AD31" t="s">
-        <v>572</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>572</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>572</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="32" spans="11:33">
-      <c r="K32" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>594</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="33" spans="11:33">
-      <c r="K33" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>616</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>616</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="34" spans="11:33">
-      <c r="K34" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="35" spans="11:33">
-      <c r="K35" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>617</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>617</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="36" spans="11:33">
-      <c r="K36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="11:33">
-      <c r="K37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="11:33">
-      <c r="K38" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="11:33">
-      <c r="K39" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="40" spans="11:33">
-      <c r="K40" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="41" spans="11:33">
-      <c r="K41" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="11:33">
-      <c r="K42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="11:33">
-      <c r="K43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="11:33">
-      <c r="K44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="11:33">
-      <c r="K45" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="11:33">
-      <c r="K46" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="11:33">
-      <c r="K47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="11:33">
-      <c r="K48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="119" spans="11:11">
-      <c r="K119" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="121" spans="11:11">
-      <c r="K121" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="11:11">
-      <c r="K122" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="123" spans="11:11">
-      <c r="K123" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="11:11">
-      <c r="K124" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="11:11">
-      <c r="K125" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" spans="11:11">
-      <c r="K126" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="127" spans="11:11">
-      <c r="K127" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="128" spans="11:11">
-      <c r="K128" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="129" spans="11:11">
-      <c r="K129" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="130" spans="11:11">
-      <c r="K130" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="131" spans="11:11">
-      <c r="K131" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="11:11">
-      <c r="K132" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="133" spans="11:11">
-      <c r="K133" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="134" spans="11:11">
-      <c r="K134" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="135" spans="11:11">
-      <c r="K135" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="136" spans="11:11">
-      <c r="K136" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="137" spans="11:11">
-      <c r="K137" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="138" spans="11:11">
-      <c r="K138" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="139" spans="11:11">
-      <c r="K139" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="140" spans="11:11">
-      <c r="K140" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="141" spans="11:11">
-      <c r="K141" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="142" spans="11:11">
-      <c r="K142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" spans="11:11">
-      <c r="K143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="144" spans="11:11">
-      <c r="K144" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="145" spans="11:11">
-      <c r="K145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="146" spans="11:11">
-      <c r="K146" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="147" spans="11:11">
-      <c r="K147" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="148" spans="11:11">
-      <c r="K148" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="149" spans="11:11">
-      <c r="K149" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
-      <c r="K150" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
-      <c r="K151" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
-      <c r="K152" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
-      <c r="K153" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
-      <c r="K154" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
-      <c r="K155" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
-      <c r="K156" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
-      <c r="K157" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
-      <c r="K158" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
-      <c r="K159" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
-      <c r="K160" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
-      <c r="K161" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
-      <c r="K162" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
-      <c r="K163" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
-      <c r="K164" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
-      <c r="K165" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
-      <c r="K166" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
-      <c r="K167" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
-      <c r="K168" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
-      <c r="K169" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
-      <c r="K170" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
-      <c r="K171" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
-      <c r="K172" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
-      <c r="K173" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
-      <c r="K174" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
-      <c r="K175" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
-      <c r="K176" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
-      <c r="K177" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
-      <c r="K178" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
-      <c r="K179" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
-      <c r="K180" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
-      <c r="K181" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="182" spans="11:11">
-      <c r="K182" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="185" spans="11:11">
-      <c r="K185" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="186" spans="11:11">
-      <c r="K186" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="187" spans="11:11">
-      <c r="K187" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="188" spans="11:11">
-      <c r="K188" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
-      <c r="K189" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="190" spans="11:11">
-      <c r="K190" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="191" spans="11:11">
-      <c r="K191" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="192" spans="11:11">
-      <c r="K192" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="193" spans="11:11">
-      <c r="K193" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="194" spans="11:11">
-      <c r="K194" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="195" spans="11:11">
-      <c r="K195" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="196" spans="11:11">
-      <c r="K196" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="197" spans="11:11">
-      <c r="K197" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="198" spans="11:11">
-      <c r="K198" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="199" spans="11:11">
-      <c r="K199" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="200" spans="11:11">
-      <c r="K200" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="201" spans="11:11">
-      <c r="K201" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="202" spans="11:11">
-      <c r="K202" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="203" spans="11:11">
-      <c r="K203" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="204" spans="11:11">
-      <c r="K204" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="205" spans="11:11">
-      <c r="K205" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="206" spans="11:11">
-      <c r="K206" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="207" spans="11:11">
-      <c r="K207" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="208" spans="11:11">
-      <c r="K208" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="209" spans="11:11">
-      <c r="K209" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="210" spans="11:11">
-      <c r="K210" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="211" spans="11:11">
-      <c r="K211" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="212" spans="11:11">
-      <c r="K212" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="213" spans="11:11">
-      <c r="K213" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="214" spans="11:11">
-      <c r="K214" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="215" spans="11:11">
-      <c r="K215" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="216" spans="11:11">
-      <c r="K216" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="217" spans="11:11">
-      <c r="K217" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="218" spans="11:11">
-      <c r="K218" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="219" spans="11:11">
-      <c r="K219" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="220" spans="11:11">
-      <c r="K220" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="221" spans="11:11">
-      <c r="K221" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="222" spans="11:11">
-      <c r="K222" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="223" spans="11:11">
-      <c r="K223" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="224" spans="11:11">
-      <c r="K224" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="225" spans="11:11">
-      <c r="K225" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="226" spans="11:11">
-      <c r="K226" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="227" spans="11:11">
-      <c r="K227" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="228" spans="11:11">
-      <c r="K228" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="229" spans="11:11">
-      <c r="K229" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="230" spans="11:11">
-      <c r="K230" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="231" spans="11:11">
-      <c r="K231" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="232" spans="11:11">
-      <c r="K232" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="233" spans="11:11">
-      <c r="K233" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="234" spans="11:11">
-      <c r="K234" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="235" spans="11:11">
-      <c r="K235" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="236" spans="11:11">
-      <c r="K236" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="237" spans="11:11">
-      <c r="K237" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="238" spans="11:11">
-      <c r="K238" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="239" spans="11:11">
-      <c r="K239" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="240" spans="11:11">
-      <c r="K240" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="241" spans="11:11">
-      <c r="K241" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="242" spans="11:11">
-      <c r="K242" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="243" spans="11:11">
-      <c r="K243" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="244" spans="11:11">
-      <c r="K244" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="245" spans="11:11">
-      <c r="K245" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="246" spans="11:11">
-      <c r="K246" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="247" spans="11:11">
-      <c r="K247" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="248" spans="11:11">
-      <c r="K248" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="249" spans="11:11">
-      <c r="K249" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="250" spans="11:11">
-      <c r="K250" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="251" spans="11:11">
-      <c r="K251" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="252" spans="11:11">
-      <c r="K252" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="253" spans="11:11">
-      <c r="K253" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="254" spans="11:11">
-      <c r="K254" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="255" spans="11:11">
-      <c r="K255" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="256" spans="11:11">
-      <c r="K256" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="257" spans="11:11">
-      <c r="K257" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="258" spans="11:11">
-      <c r="K258" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="259" spans="11:11">
-      <c r="K259" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="260" spans="11:11">
-      <c r="K260" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="261" spans="11:11">
-      <c r="K261" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="262" spans="11:11">
-      <c r="K262" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="263" spans="11:11">
-      <c r="K263" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="264" spans="11:11">
-      <c r="K264" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="265" spans="11:11">
-      <c r="K265" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="266" spans="11:11">
-      <c r="K266" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="267" spans="11:11">
-      <c r="K267" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="268" spans="11:11">
-      <c r="K268" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="269" spans="11:11">
-      <c r="K269" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="270" spans="11:11">
-      <c r="K270" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="271" spans="11:11">
-      <c r="K271" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="272" spans="11:11">
-      <c r="K272" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="273" spans="11:11">
-      <c r="K273" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="274" spans="11:11">
-      <c r="K274" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="275" spans="11:11">
-      <c r="K275" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="276" spans="11:11">
-      <c r="K276" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="277" spans="11:11">
-      <c r="K277" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="278" spans="11:11">
-      <c r="K278" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="279" spans="11:11">
-      <c r="K279" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="280" spans="11:11">
-      <c r="K280" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="281" spans="11:11">
-      <c r="K281" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="282" spans="11:11">
-      <c r="K282" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="283" spans="11:11">
-      <c r="K283" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="284" spans="11:11">
-      <c r="K284" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="285" spans="11:11">
-      <c r="K285" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="286" spans="11:11">
-      <c r="K286" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="287" spans="11:11">
-      <c r="K287" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="288" spans="11:11">
-      <c r="K288" t="s">
-        <v>565</v>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -24,7 +24,7 @@
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="634">
   <si>
     <t>alias</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2473,7 +2476,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2517,7 +2520,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3256,6 +3259,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3280,27 +3288,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3323,122 +3331,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3465,240 +3473,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -3736,1972 +3744,1972 @@
   <sheetData>
     <row r="1" spans="15:33">
       <c r="O1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AE1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="15:33">
       <c r="O2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AD2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AE2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="15:33">
       <c r="O3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="15:33">
       <c r="O4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="15:33">
       <c r="O5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="15:33">
       <c r="O6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AE6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="15:33">
       <c r="O7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AD7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="15:33">
       <c r="O8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="15:33">
       <c r="O9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AE9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="15:33">
       <c r="O10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AD10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AE10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="15:33">
       <c r="O11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AD11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AE11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="15:33">
       <c r="O12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="15:33">
       <c r="O13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="15:33">
       <c r="O14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="15:33">
       <c r="O15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="15:33">
       <c r="O16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AD16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AE16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="15:33">
       <c r="O17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AD17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AE17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG17" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="15:33">
       <c r="O18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="15:33">
       <c r="O19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="15:33">
       <c r="O20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG20" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="15:33">
       <c r="O21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="15:33">
       <c r="O22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AD22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AE22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="15:33">
       <c r="O23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="15:33">
       <c r="O24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="15:33">
       <c r="O25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="15:33">
       <c r="O26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="15:33">
       <c r="O27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="15:33">
       <c r="O28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="15:33">
       <c r="O29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="15:33">
       <c r="O30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AE30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="15:33">
       <c r="O31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AE31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="15:33">
       <c r="O32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AD32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AE32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG32" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="15:33">
       <c r="O33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AE33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="15:33">
       <c r="O34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AE34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG34" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="15:33">
       <c r="O35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AE35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="15:33">
       <c r="O36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="15:33">
       <c r="O37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="15:33">
       <c r="O38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="15:33">
       <c r="O39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="15:33">
       <c r="O40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="15:33">
       <c r="O41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="15:33">
       <c r="O42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="15:33">
       <c r="O43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="15:33">
       <c r="O44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="15:33">
       <c r="O45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="15:33">
       <c r="O46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="15:33">
       <c r="O47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="15:33">
       <c r="O48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -24,7 +24,7 @@
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="635">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2476,7 +2479,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2520,7 +2523,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2550,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3264,6 +3267,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3288,27 +3296,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3331,122 +3339,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3473,240 +3481,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -3744,1972 +3752,1972 @@
   <sheetData>
     <row r="1" spans="15:33">
       <c r="O1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="15:33">
       <c r="O2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AE2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="15:33">
       <c r="O3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="15:33">
       <c r="O4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="15:33">
       <c r="O5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="15:33">
       <c r="O6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AE6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="15:33">
       <c r="O7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AE7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="15:33">
       <c r="O8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AE8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="15:33">
       <c r="O9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AD9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AE9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="15:33">
       <c r="O10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AE10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="15:33">
       <c r="O11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AD11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AE11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="15:33">
       <c r="O12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="15:33">
       <c r="O13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="15:33">
       <c r="O14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="15:33">
       <c r="O15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="15:33">
       <c r="O16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AD16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AE16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG16" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="15:33">
       <c r="O17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AD17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AE17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG17" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="15:33">
       <c r="O18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="15:33">
       <c r="O19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AD19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AE19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="15:33">
       <c r="O20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG20" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="15:33">
       <c r="O21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="15:33">
       <c r="O22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AD22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AE22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="15:33">
       <c r="O23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="15:33">
       <c r="O24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="15:33">
       <c r="O25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG25" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="15:33">
       <c r="O26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AE26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="15:33">
       <c r="O27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="15:33">
       <c r="O28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="15:33">
       <c r="O29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AE29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="15:33">
       <c r="O30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AE30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="15:33">
       <c r="O31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="15:33">
       <c r="O32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AD32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AE32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="15:33">
       <c r="O33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AE33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG33" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="15:33">
       <c r="O34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AD34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AE34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG34" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="15:33">
       <c r="O35" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="15:33">
       <c r="O36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="15:33">
       <c r="O37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="15:33">
       <c r="O38" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="15:33">
       <c r="O39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="15:33">
       <c r="O40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="15:33">
       <c r="O41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="15:33">
       <c r="O42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="15:33">
       <c r="O43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="15:33">
       <c r="O44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="15:33">
       <c r="O45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="15:33">
       <c r="O46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="15:33">
       <c r="O47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="15:33">
       <c r="O48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -24,7 +24,7 @@
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="636">
   <si>
     <t>alias</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2479,7 +2482,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2523,7 +2526,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2553,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3272,6 +3275,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3296,27 +3304,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3339,122 +3347,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3481,240 +3489,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3752,1972 +3760,1972 @@
   <sheetData>
     <row r="1" spans="15:33">
       <c r="O1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="15:33">
       <c r="O2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AE2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="15:33">
       <c r="O3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="15:33">
       <c r="O4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="15:33">
       <c r="O5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="15:33">
       <c r="O6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AE6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="15:33">
       <c r="O7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AD7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AE7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="15:33">
       <c r="O8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="15:33">
       <c r="O9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AD9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AE9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="15:33">
       <c r="O10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AE10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="15:33">
       <c r="O11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AD11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AE11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="15:33">
       <c r="O12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="15:33">
       <c r="O13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="15:33">
       <c r="O14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="15:33">
       <c r="O15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="15:33">
       <c r="O16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AE16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="15:33">
       <c r="O17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AE17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="15:33">
       <c r="O18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AE18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="15:33">
       <c r="O19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AE19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="15:33">
       <c r="O20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG20" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="15:33">
       <c r="O21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="15:33">
       <c r="O22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AD22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AE22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="15:33">
       <c r="O23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="15:33">
       <c r="O24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="15:33">
       <c r="O25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="15:33">
       <c r="O26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AD26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="15:33">
       <c r="O27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="15:33">
       <c r="O28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AE28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG28" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="15:33">
       <c r="O29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AE29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG29" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="15:33">
       <c r="O30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="15:33">
       <c r="O31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AD31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AE31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="15:33">
       <c r="O32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AE32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="15:33">
       <c r="O33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="15:33">
       <c r="O34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AD34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AE34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG34" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="15:33">
       <c r="O35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="15:33">
       <c r="O36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="15:33">
       <c r="O37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="15:33">
       <c r="O38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="15:33">
       <c r="O39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="15:33">
       <c r="O40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="15:33">
       <c r="O41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="15:33">
       <c r="O42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="15:33">
       <c r="O43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="15:33">
       <c r="O44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="15:33">
       <c r="O45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="15:33">
       <c r="O46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="15:33">
       <c r="O47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="15:33">
       <c r="O48" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -24,7 +24,7 @@
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="637">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2482,7 +2485,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2526,7 +2529,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2553,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3280,6 +3283,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3304,27 +3312,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3347,122 +3355,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3489,240 +3497,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -3760,1972 +3768,1972 @@
   <sheetData>
     <row r="1" spans="15:33">
       <c r="O1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="15:33">
       <c r="O2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AD2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AE2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="15:33">
       <c r="O3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="15:33">
       <c r="O4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="15:33">
       <c r="O5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="15:33">
       <c r="O6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="15:33">
       <c r="O7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AD7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AE7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="15:33">
       <c r="O8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="15:33">
       <c r="O9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AD9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AE9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="15:33">
       <c r="O10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AC10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AE10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="15:33">
       <c r="O11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AD11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AE11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="15:33">
       <c r="O12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="15:33">
       <c r="O13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AC13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="15:33">
       <c r="O14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AC14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AE14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="15:33">
       <c r="O15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AC15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AE15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="15:33">
       <c r="O16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AE16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="15:33">
       <c r="O17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AD17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AE17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="15:33">
       <c r="O18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AE18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="15:33">
       <c r="O19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="15:33">
       <c r="O20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AC20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AD20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AE20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="15:33">
       <c r="O21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="15:33">
       <c r="O22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AD22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AE22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="15:33">
       <c r="O23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="15:33">
       <c r="O24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AD24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AE24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="15:33">
       <c r="O25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AC25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AD25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AE25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="15:33">
       <c r="O26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AD26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AE26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="15:33">
       <c r="O27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AE27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="15:33">
       <c r="O28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AE28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="15:33">
       <c r="O29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC29" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD29" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE29" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF29" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG29" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="15:33">
       <c r="O30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AD30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AE30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="15:33">
       <c r="O31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AE31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="15:33">
       <c r="O32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AD32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AE32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="15:33">
       <c r="O33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="15:33">
       <c r="O34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AE34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG34" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="15:33">
       <c r="O35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="15:33">
       <c r="O36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="15:33">
       <c r="O37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="15:33">
       <c r="O38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="15:33">
       <c r="O39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="15:33">
       <c r="O40" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="15:33">
       <c r="O41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="15:33">
       <c r="O42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="15:33">
       <c r="O43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="15:33">
       <c r="O44" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="15:33">
       <c r="O45" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="15:33">
       <c r="O46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="15:33">
       <c r="O47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="15:33">
       <c r="O48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="15:15">
       <c r="O50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="15:15">
       <c r="O51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="15:15">
       <c r="O52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="15:15">
       <c r="O53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="15:15">
       <c r="O54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="15:15">
       <c r="O55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="15:15">
       <c r="O56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="15:15">
       <c r="O58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="15:15">
       <c r="O59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="15:15">
       <c r="O61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="15:15">
       <c r="O62" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="15:15">
       <c r="O63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="15:15">
       <c r="O64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="15:15">
       <c r="O65" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="15:15">
       <c r="O67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="15:15">
       <c r="O68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="15:15">
       <c r="O69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="15:15">
       <c r="O70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="15:15">
       <c r="O71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="15:15">
       <c r="O72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="15:15">
       <c r="O74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="15:15">
       <c r="O76" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="15:15">
       <c r="O77" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="15:15">
       <c r="O78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="15:15">
       <c r="O80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="15:15">
       <c r="O82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="15:15">
       <c r="O83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="15:15">
       <c r="O84" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="15:15">
       <c r="O85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="15:15">
       <c r="O86" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="15:15">
       <c r="O87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="15:15">
       <c r="O90" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="15:15">
       <c r="O91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="15:15">
       <c r="O92" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="15:15">
       <c r="O93" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="15:15">
       <c r="O94" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="15:15">
       <c r="O95" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="15:15">
       <c r="O96" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="15:15">
       <c r="O97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="15:15">
       <c r="O98" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="15:15">
       <c r="O99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="15:15">
       <c r="O100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101" spans="15:15">
       <c r="O101" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="15:15">
       <c r="O102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="15:15">
       <c r="O104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="15:15">
       <c r="O106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="15:15">
       <c r="O107" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="15:15">
       <c r="O108" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="15:15">
       <c r="O109" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="15:15">
       <c r="O110" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="15:15">
       <c r="O111" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="15:15">
       <c r="O112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="15:15">
       <c r="O114" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="15:15">
       <c r="O116" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="15:15">
       <c r="O118" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="15:15">
       <c r="O119" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="15:15">
       <c r="O120" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="15:15">
       <c r="O121" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="15:15">
       <c r="O124" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="15:15">
       <c r="O126" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="15:15">
       <c r="O127" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="15:15">
       <c r="O128" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" spans="15:15">
       <c r="O129" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="15:15">
       <c r="O132" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="15:15">
       <c r="O134" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="15:15">
       <c r="O136" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="15:15">
       <c r="O137" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="15:15">
       <c r="O138" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="15:15">
       <c r="O141" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="15:15">
       <c r="O143" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="15:15">
       <c r="O145" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="15:15">
       <c r="O147" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="15:15">
       <c r="O148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="15:15">
       <c r="O149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="15:15">
       <c r="O150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="15:15">
       <c r="O152" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="15:15">
       <c r="O155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="15:15">
       <c r="O157" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="15:15">
       <c r="O159" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="15:15">
       <c r="O161" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="15:15">
       <c r="O162" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="15:15">
       <c r="O163" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="15:15">
       <c r="O164" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="15:15">
       <c r="O165" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="15:15">
       <c r="O166" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="167" spans="15:15">
       <c r="O167" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="15:15">
       <c r="O168" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="169" spans="15:15">
       <c r="O169" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="15:15">
       <c r="O171" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="15:15">
       <c r="O172" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="15:15">
       <c r="O173" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="174" spans="15:15">
       <c r="O174" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="15:15">
       <c r="O175" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="176" spans="15:15">
       <c r="O176" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="15:15">
       <c r="O177" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="15:15">
       <c r="O178" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="15:15">
       <c r="O179" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="180" spans="15:15">
       <c r="O180" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="15:15">
       <c r="O181" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="15:15">
       <c r="O183" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" spans="15:15">
       <c r="O186" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="188" spans="15:15">
       <c r="O188" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" spans="15:15">
       <c r="O190" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="191" spans="15:15">
       <c r="O191" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="192" spans="15:15">
       <c r="O192" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="15:15">
       <c r="O193" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="194" spans="15:15">
       <c r="O194" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="15:15">
       <c r="O195" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="15:15">
       <c r="O196" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="197" spans="15:15">
       <c r="O197" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="15:15">
       <c r="O198" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="15:15">
       <c r="O199" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="15:15">
       <c r="O200" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="15:15">
       <c r="O201" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="15:15">
       <c r="O202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="15:15">
       <c r="O203" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="15:15">
       <c r="O204" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="15:15">
       <c r="O206" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="15:15">
       <c r="O207" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="15:15">
       <c r="O208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="15:15">
       <c r="O209" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="15:15">
       <c r="O210" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="15:15">
       <c r="O211" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="15:15">
       <c r="O212" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="15:15">
       <c r="O213" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="15:15">
       <c r="O214" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="215" spans="15:15">
       <c r="O215" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="218" spans="15:15">
       <c r="O218" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="219" spans="15:15">
       <c r="O219" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="220" spans="15:15">
       <c r="O220" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="223" spans="15:15">
       <c r="O223" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="225" spans="15:15">
       <c r="O225" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="227" spans="15:15">
       <c r="O227" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="15:15">
       <c r="O228" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="15:15">
       <c r="O229" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="15:15">
       <c r="O230" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="233" spans="15:15">
       <c r="O233" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="235" spans="15:15">
       <c r="O235" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="15:15">
       <c r="O237" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="238" spans="15:15">
       <c r="O238" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="239" spans="15:15">
       <c r="O239" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="15:15">
       <c r="O240" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="244" spans="15:15">
       <c r="O244" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="245" spans="15:15">
       <c r="O245" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248" spans="15:15">
       <c r="O248" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="250" spans="15:15">
       <c r="O250" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="252" spans="15:15">
       <c r="O252" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="254" spans="15:15">
       <c r="O254" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="255" spans="15:15">
       <c r="O255" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="258" spans="15:15">
       <c r="O258" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="15:15">
       <c r="O259" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="260" spans="15:15">
       <c r="O260" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="261" spans="15:15">
       <c r="O261" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="15:15">
       <c r="O262" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="263" spans="15:15">
       <c r="O263" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="15:15">
       <c r="O264" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="267" spans="15:15">
       <c r="O267" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="269" spans="15:15">
       <c r="O269" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="271" spans="15:15">
       <c r="O271" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="273" spans="15:15">
       <c r="O273" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="275" spans="15:15">
       <c r="O275" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="277" spans="15:15">
       <c r="O277" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="15:15">
       <c r="O279" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="281" spans="15:15">
       <c r="O281" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="15:15">
       <c r="O282" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="15:15">
       <c r="O283" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="284" spans="15:15">
       <c r="O284" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="15:15">
       <c r="O285" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="288" spans="15:15">
       <c r="O288" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -23,7 +23,7 @@
     <definedName name="experimentalfactor4">'cv_sample'!$AF$1:$AF$35</definedName>
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="650">
   <si>
     <t>alias</t>
   </si>
@@ -860,1069 +860,1099 @@
     <t>(Optional) If the sample was obtained from an organism in a specific developmental stage, it is specified with this qualifier</t>
   </si>
   <si>
+    <t>organism_part</t>
+  </si>
+  <si>
+    <t>(Optional) The part of organism's anatomy or substance arising from an organism from which the biomaterial was derived, excludes cells.</t>
+  </si>
+  <si>
+    <t>ploidy</t>
+  </si>
+  <si>
+    <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
+    <t>(Optional) The name of the disease causing/contaminating organism; the value can also be ‘control’.</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>sampling_time_point</t>
+  </si>
+  <si>
+    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
+  </si>
+  <si>
+    <t>initial_time_point</t>
+  </si>
+  <si>
+    <t>(Optional) The first time point measured at the start of some process.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>(Recommended) Age of the organism the sample was derived from.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic_location_country_andor_sea</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>(Optional) Where possible, please use the experimental factor ontology (efo) to describe your phenotypes.</t>
+  </si>
+  <si>
+    <t>cellular_component</t>
+  </si>
+  <si>
+    <t>(Optional) The part of a cell or its extracellular environment in which a gene product is located.</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>(Optional) An individual used a specimen in an experiment, from which a material sample was derived.</t>
+  </si>
+  <si>
+    <t>disease_staging</t>
+  </si>
+  <si>
+    <t>(Optional) The stage or progression of a disease in an organism. includes pathological staging of cancers and other disease progression. e.g. dukes c stage describing colon cancer (efo_0000410).</t>
+  </si>
+  <si>
+    <t>immunoprecipitate</t>
+  </si>
+  <si>
+    <t>(Optional) The precipitate antibody bound target molecules generated when precipitating an antigen out of a solution during the process of immunoprecipitation.</t>
+  </si>
+  <si>
+    <t>replicate</t>
+  </si>
+  <si>
+    <t>(Optional) A role played by a biological sample in the context of an experiment where the intent is that biological or technical variation is measured.</t>
+  </si>
+  <si>
+    <t>cultivar</t>
+  </si>
+  <si>
+    <t>(Optional) Cultivar (cultivated variety) of plant from which sample was obtained</t>
+  </si>
+  <si>
+    <t>ecotype</t>
+  </si>
+  <si>
+    <t>(Optional) A population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat.</t>
+  </si>
+  <si>
+    <t>cell_line</t>
+  </si>
+  <si>
+    <t>(Optional) Cell line from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the strain from which the sample was obtained.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>(Optional) The duration in which the treatment has occurred.</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>(Optional) The total quantity or strength of a substance administered at one time.</t>
+  </si>
+  <si>
+    <t>chemical_compound</t>
+  </si>
+  <si>
+    <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>cell line</t>
+  </si>
+  <si>
+    <t>cell type</t>
+  </si>
+  <si>
+    <t>chemical compound</t>
+  </si>
+  <si>
+    <t>disease staging</t>
+  </si>
+  <si>
+    <t>environmental history</t>
+  </si>
+  <si>
+    <t>environmental stress</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>growth condition</t>
+  </si>
+  <si>
+    <t>initial time point</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
     <t>organism part</t>
   </si>
   <si>
-    <t>(Optional) The part of organism's anatomy or substance arising from an organism from which the biomaterial was derived, excludes cells.</t>
-  </si>
-  <si>
-    <t>ploidy</t>
-  </si>
-  <si>
-    <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
-  </si>
-  <si>
-    <t>infect</t>
-  </si>
-  <si>
-    <t>(Optional) The name of the disease causing/contaminating organism; the value can also be ‘control’.</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+    <t>protein-bound</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>rnase</t>
+  </si>
+  <si>
+    <t>sample type</t>
+  </si>
+  <si>
+    <t>sampling site</t>
   </si>
   <si>
     <t>sampling time point</t>
   </si>
   <si>
-    <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
-  </si>
-  <si>
-    <t>initial time point</t>
-  </si>
-  <si>
-    <t>(Optional) The first time point measured at the start of some process.</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>(Recommended) Age of the organism the sample was derived from.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>(Optional) Where possible, please use the experimental factor ontology (efo) to describe your phenotypes.</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>(Optional) The part of a cell or its extracellular environment in which a gene product is located.</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>(Optional) An individual used a specimen in an experiment, from which a material sample was derived.</t>
-  </si>
-  <si>
-    <t>disease staging</t>
-  </si>
-  <si>
-    <t>(Optional) The stage or progression of a disease in an organism. includes pathological staging of cancers and other disease progression. e.g. dukes c stage describing colon cancer (efo_0000410).</t>
-  </si>
-  <si>
-    <t>immunoprecipitate</t>
-  </si>
-  <si>
-    <t>(Optional) The precipitate antibody bound target molecules generated when precipitating an antigen out of a solution during the process of immunoprecipitation.</t>
-  </si>
-  <si>
-    <t>replicate</t>
-  </si>
-  <si>
-    <t>(Optional) A role played by a biological sample in the context of an experiment where the intent is that biological or technical variation is measured.</t>
-  </si>
-  <si>
-    <t>cultivar</t>
-  </si>
-  <si>
-    <t>(Optional) Cultivar (cultivated variety) of plant from which sample was obtained</t>
-  </si>
-  <si>
-    <t>ecotype</t>
-  </si>
-  <si>
-    <t>(Optional) A population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat.</t>
-  </si>
-  <si>
-    <t>cell_line</t>
-  </si>
-  <si>
-    <t>(Optional) Cell line from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the strain from which the sample was obtained.</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>(Optional) The duration in which the treatment has occurred.</t>
-  </si>
-  <si>
-    <t>dose</t>
-  </si>
-  <si>
-    <t>(Optional) The total quantity or strength of a substance administered at one time.</t>
-  </si>
-  <si>
-    <t>chemical compound</t>
-  </si>
-  <si>
-    <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>cell line</t>
-  </si>
-  <si>
-    <t>cell type</t>
-  </si>
-  <si>
-    <t>environmental history</t>
-  </si>
-  <si>
-    <t>environmental stress</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>growth condition</t>
-  </si>
-  <si>
-    <t>organism</t>
-  </si>
-  <si>
-    <t>protein-bound</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>rnase</t>
-  </si>
-  <si>
-    <t>sample type</t>
-  </si>
-  <si>
-    <t>sampling site</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
     <t>transgene</t>
   </si>
   <si>
-    <t>experimental factor 1</t>
+    <t>experimental_factor_1</t>
   </si>
   <si>
     <t>(Optional) A variable that the experiment is based on.</t>
   </si>
   <si>
-    <t>experimental factor 2</t>
-  </si>
-  <si>
-    <t>experimental factor 3</t>
-  </si>
-  <si>
-    <t>experimental factor 4</t>
-  </si>
-  <si>
-    <t>experimental factor 5</t>
+    <t>experimental_factor_2</t>
+  </si>
+  <si>
+    <t>experimental_factor_3</t>
+  </si>
+  <si>
+    <t>experimental_factor_4</t>
+  </si>
+  <si>
+    <t>experimental_factor_5</t>
   </si>
   <si>
     <t>(Optional) A block or batch is an experimental unit arrangement into a group which is similar to one another. typically, a blocking factor is a source of variability that is not of primary interest to the experimenter. an example of a blocking factor might be the sex of a patient; by blocking on sex, this source of variability is controlled for, thus leading to greater accuracy (efo_0005067).</t>
@@ -1931,7 +1961,7 @@
     <t>(Recommended) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>genetic modification</t>
+    <t>genetic_modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
@@ -1940,10 +1970,19 @@
     <t>(Optional) The laboratory method used to reveal the presence of the sample sequenced in the experiment.</t>
   </si>
   <si>
+    <t>environmental_stress</t>
+  </si>
+  <si>
     <t>(Optional) Environmental stress is a treatment where some aspect of the environment is perturbed in order to stress the organism or culture, e.g. change in temperature, change in watering regime.</t>
   </si>
   <si>
+    <t>environmental_history</t>
+  </si>
+  <si>
     <t>(Optional) Information concerning the envinonrment a material entity has been exposed to, such as an organism from a lake.</t>
+  </si>
+  <si>
+    <t>growth_condition</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
@@ -3533,82 +3572,82 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3655,82 +3694,82 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3799,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:AG289"/>
+  <dimension ref="O1:AG294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3771,19 +3810,19 @@
         <v>290</v>
       </c>
       <c r="AC1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AD1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AE1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AF1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="15:33">
@@ -3811,19 +3850,19 @@
         <v>292</v>
       </c>
       <c r="AC3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AD3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AE3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AF3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AG3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="15:33">
@@ -3831,19 +3870,19 @@
         <v>293</v>
       </c>
       <c r="AC4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AD4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AE4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AF4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AG4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="15:33">
@@ -3851,19 +3890,19 @@
         <v>294</v>
       </c>
       <c r="AC5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AD5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AE5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AF5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AG5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="15:33">
@@ -3871,19 +3910,19 @@
         <v>295</v>
       </c>
       <c r="AC6" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="AD6" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="AE6" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="AF6" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="AG6" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="15:33">
@@ -3891,19 +3930,19 @@
         <v>296</v>
       </c>
       <c r="AC7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AD7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AE7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AF7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AG7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="15:33">
@@ -3931,19 +3970,19 @@
         <v>298</v>
       </c>
       <c r="AC9" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="AD9" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="AE9" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="AF9" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="AG9" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="15:33">
@@ -3951,19 +3990,19 @@
         <v>299</v>
       </c>
       <c r="AC10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AD10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AE10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AF10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AG10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="15:33">
@@ -3971,19 +4010,19 @@
         <v>300</v>
       </c>
       <c r="AC11" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AD11" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AE11" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AF11" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AG11" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="15:33">
@@ -3991,19 +4030,19 @@
         <v>301</v>
       </c>
       <c r="AC12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AD12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AE12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AF12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="AG12" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="15:33">
@@ -4011,19 +4050,19 @@
         <v>302</v>
       </c>
       <c r="AC13" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AD13" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AE13" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AF13" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="AG13" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="15:33">
@@ -4031,19 +4070,19 @@
         <v>303</v>
       </c>
       <c r="AC14" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AD14" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AE14" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AF14" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AG14" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="15:33">
@@ -4051,19 +4090,19 @@
         <v>304</v>
       </c>
       <c r="AC15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="AD15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="AE15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="AF15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="AG15" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="15:33">
@@ -4071,19 +4110,19 @@
         <v>305</v>
       </c>
       <c r="AC16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AD16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AE16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AF16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AG16" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="15:33">
@@ -4091,19 +4130,19 @@
         <v>306</v>
       </c>
       <c r="AC17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AD17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AE17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AF17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AG17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="15:33">
@@ -4131,19 +4170,19 @@
         <v>308</v>
       </c>
       <c r="AC19" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
       <c r="AD19" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
       <c r="AE19" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
       <c r="AF19" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
       <c r="AG19" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="15:33">
@@ -4151,19 +4190,19 @@
         <v>309</v>
       </c>
       <c r="AC20" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AD20" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AE20" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AF20" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AG20" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="15:33">
@@ -4171,19 +4210,19 @@
         <v>310</v>
       </c>
       <c r="AC21" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
       <c r="AD21" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
       <c r="AE21" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
       <c r="AF21" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
       <c r="AG21" t="s">
-        <v>274</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="15:33">
@@ -4191,19 +4230,19 @@
         <v>311</v>
       </c>
       <c r="AC22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AD22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AE22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AF22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="15:33">
@@ -4231,19 +4270,19 @@
         <v>313</v>
       </c>
       <c r="AC24" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AD24" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AE24" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AF24" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AG24" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="15:33">
@@ -4251,19 +4290,19 @@
         <v>314</v>
       </c>
       <c r="AC25" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AD25" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AE25" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AF25" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AG25" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="15:33">
@@ -4271,19 +4310,19 @@
         <v>315</v>
       </c>
       <c r="AC26" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AD26" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AE26" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AF26" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AG26" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="15:33">
@@ -4291,19 +4330,19 @@
         <v>316</v>
       </c>
       <c r="AC27" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AD27" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AE27" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AF27" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="AG27" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="15:33">
@@ -4311,19 +4350,19 @@
         <v>317</v>
       </c>
       <c r="AC28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="AD28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="AE28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="AF28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="AG28" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="15:33">
@@ -4331,19 +4370,19 @@
         <v>318</v>
       </c>
       <c r="AC29" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AD29" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AE29" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AF29" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="AG29" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="15:33">
@@ -4351,19 +4390,19 @@
         <v>319</v>
       </c>
       <c r="AC30" t="s">
-        <v>282</v>
+        <v>630</v>
       </c>
       <c r="AD30" t="s">
-        <v>282</v>
+        <v>630</v>
       </c>
       <c r="AE30" t="s">
-        <v>282</v>
+        <v>630</v>
       </c>
       <c r="AF30" t="s">
-        <v>282</v>
+        <v>630</v>
       </c>
       <c r="AG30" t="s">
-        <v>282</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="15:33">
@@ -4391,19 +4430,19 @@
         <v>321</v>
       </c>
       <c r="AC32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AD32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AE32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AF32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AG32" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="15:33">
@@ -4411,19 +4450,19 @@
         <v>322</v>
       </c>
       <c r="AC33" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AD33" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AE33" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AF33" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AG33" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="15:33">
@@ -4431,19 +4470,19 @@
         <v>323</v>
       </c>
       <c r="AC34" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AD34" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AE34" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AF34" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AG34" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="15:33">
@@ -4451,19 +4490,19 @@
         <v>324</v>
       </c>
       <c r="AC35" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="AD35" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="AE35" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="AF35" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="AG35" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="15:33">
@@ -5734,6 +5773,31 @@
     <row r="289" spans="15:15">
       <c r="O289" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -23,7 +23,7 @@
     <definedName name="experimentalfactor4">'cv_sample'!$AF$1:$AF$35</definedName>
     <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="637">
   <si>
     <t>alias</t>
   </si>
@@ -860,7 +860,7 @@
     <t>(Optional) If the sample was obtained from an organism in a specific developmental stage, it is specified with this qualifier</t>
   </si>
   <si>
-    <t>organism_part</t>
+    <t>organism part</t>
   </si>
   <si>
     <t>(Optional) The part of organism's anatomy or substance arising from an organism from which the biomaterial was derived, excludes cells.</t>
@@ -878,19 +878,19 @@
     <t>(Optional) The name of the disease causing/contaminating organism; the value can also be ‘control’.</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>sampling_time_point</t>
+    <t>sampling time point</t>
   </si>
   <si>
     <t>(Optional) Time point at which a sample or observation is made or taken from a biomaterial as measured from some reference point. indicate the timepoint written in iso 8601 format.</t>
   </si>
   <si>
-    <t>initial_time_point</t>
+    <t>initial time point</t>
   </si>
   <si>
     <t>(Optional) The first time point measured at the start of some process.</t>
@@ -1121,6 +1121,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1139,9 +1142,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1343,9 +1343,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1355,6 +1352,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1394,7 +1394,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1463,9 +1463,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1541,9 +1538,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1565,9 +1559,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1613,9 +1604,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1628,9 +1616,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1640,6 +1625,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1664,9 +1652,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1727,12 +1712,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1790,7 +1775,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1802,7 +1787,7 @@
     <t>(Optional) Where possible, please use the experimental factor ontology (efo) to describe your phenotypes.</t>
   </si>
   <si>
-    <t>cellular_component</t>
+    <t>cellular component</t>
   </si>
   <si>
     <t>(Optional) The part of a cell or its extracellular environment in which a gene product is located.</t>
@@ -1814,7 +1799,7 @@
     <t>(Optional) An individual used a specimen in an experiment, from which a material sample was derived.</t>
   </si>
   <si>
-    <t>disease_staging</t>
+    <t>disease staging</t>
   </si>
   <si>
     <t>(Optional) The stage or progression of a disease in an organism. includes pathological staging of cancers and other disease progression. e.g. dukes c stage describing colon cancer (efo_0000410).</t>
@@ -1868,7 +1853,7 @@
     <t>(Optional) The total quantity or strength of a substance administered at one time.</t>
   </si>
   <si>
-    <t>chemical_compound</t>
+    <t>chemical compound</t>
   </si>
   <si>
     <t>(Optional) A drug, solvent, chemical, etc., with a property that can be measured such as concentration (http://purl.obolibrary.org/obo/chebi_37577).</t>
@@ -1886,12 +1871,6 @@
     <t>cell type</t>
   </si>
   <si>
-    <t>chemical compound</t>
-  </si>
-  <si>
-    <t>disease staging</t>
-  </si>
-  <si>
     <t>environmental history</t>
   </si>
   <si>
@@ -1904,15 +1883,9 @@
     <t>growth condition</t>
   </si>
   <si>
-    <t>initial time point</t>
-  </si>
-  <si>
     <t>organism</t>
   </si>
   <si>
-    <t>organism part</t>
-  </si>
-  <si>
     <t>protein-bound</t>
   </si>
   <si>
@@ -1928,31 +1901,28 @@
     <t>sampling site</t>
   </si>
   <si>
-    <t>sampling time point</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
     <t>transgene</t>
   </si>
   <si>
-    <t>experimental_factor_1</t>
+    <t>experimental factor 1</t>
   </si>
   <si>
     <t>(Optional) A variable that the experiment is based on.</t>
   </si>
   <si>
-    <t>experimental_factor_2</t>
-  </si>
-  <si>
-    <t>experimental_factor_3</t>
-  </si>
-  <si>
-    <t>experimental_factor_4</t>
-  </si>
-  <si>
-    <t>experimental_factor_5</t>
+    <t>experimental factor 2</t>
+  </si>
+  <si>
+    <t>experimental factor 3</t>
+  </si>
+  <si>
+    <t>experimental factor 4</t>
+  </si>
+  <si>
+    <t>experimental factor 5</t>
   </si>
   <si>
     <t>(Optional) A block or batch is an experimental unit arrangement into a group which is similar to one another. typically, a blocking factor is a source of variability that is not of primary interest to the experimenter. an example of a blocking factor might be the sex of a patient; by blocking on sex, this source of variability is controlled for, thus leading to greater accuracy (efo_0005067).</t>
@@ -1961,7 +1931,7 @@
     <t>(Recommended) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>genetic_modification</t>
+    <t>genetic modification</t>
   </si>
   <si>
     <t>(Optional) A genetic modification of the genome of an organism which may occur naturally by spontaneous mutation, or be introduced by some experimental means. examples of genetic modification include specification of a transgene or the gene knocked-out or details of transient transfection.</t>
@@ -1970,19 +1940,10 @@
     <t>(Optional) The laboratory method used to reveal the presence of the sample sequenced in the experiment.</t>
   </si>
   <si>
-    <t>environmental_stress</t>
-  </si>
-  <si>
     <t>(Optional) Environmental stress is a treatment where some aspect of the environment is perturbed in order to stress the organism or culture, e.g. change in temperature, change in watering regime.</t>
   </si>
   <si>
-    <t>environmental_history</t>
-  </si>
-  <si>
     <t>(Optional) Information concerning the envinonrment a material entity has been exposed to, such as an organism from a lake.</t>
-  </si>
-  <si>
-    <t>growth_condition</t>
   </si>
   <si>
     <t>(Optional) A role that a material entity can play which enables particular conditions used to grow organisms or parts of the organism. this includes isolated environments such as cultures and open environments such as field studies.</t>
@@ -3572,82 +3533,82 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3694,82 +3655,82 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="AM2" s="2" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3760,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:AG294"/>
+  <dimension ref="O1:AG289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3810,19 +3771,19 @@
         <v>290</v>
       </c>
       <c r="AC1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AD1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AE1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AF1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AG1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="15:33">
@@ -3850,19 +3811,19 @@
         <v>292</v>
       </c>
       <c r="AC3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AD3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AE3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AF3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AG3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="15:33">
@@ -3870,19 +3831,19 @@
         <v>293</v>
       </c>
       <c r="AC4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AD4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AE4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AF4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AG4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="15:33">
@@ -3890,19 +3851,19 @@
         <v>294</v>
       </c>
       <c r="AC5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AD5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AE5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AF5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AG5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="15:33">
@@ -3910,19 +3871,19 @@
         <v>295</v>
       </c>
       <c r="AC6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="AD6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="AE6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="AF6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="AG6" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="15:33">
@@ -3930,19 +3891,19 @@
         <v>296</v>
       </c>
       <c r="AC7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AD7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AE7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AF7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AG7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="15:33">
@@ -3970,19 +3931,19 @@
         <v>298</v>
       </c>
       <c r="AC9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="AD9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="AE9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="AF9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="AG9" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="15:33">
@@ -3990,19 +3951,19 @@
         <v>299</v>
       </c>
       <c r="AC10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AD10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AE10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AF10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AG10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="15:33">
@@ -4010,19 +3971,19 @@
         <v>300</v>
       </c>
       <c r="AC11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AD11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AE11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AF11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AG11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="15:33">
@@ -4030,19 +3991,19 @@
         <v>301</v>
       </c>
       <c r="AC12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AD12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AE12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AF12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AG12" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="15:33">
@@ -4050,19 +4011,19 @@
         <v>302</v>
       </c>
       <c r="AC13" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AD13" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AE13" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AF13" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AG13" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="15:33">
@@ -4070,19 +4031,19 @@
         <v>303</v>
       </c>
       <c r="AC14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AD14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AE14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AF14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AG14" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="15:33">
@@ -4090,19 +4051,19 @@
         <v>304</v>
       </c>
       <c r="AC15" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AD15" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AE15" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AF15" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AG15" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="15:33">
@@ -4110,19 +4071,19 @@
         <v>305</v>
       </c>
       <c r="AC16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AD16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AE16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AF16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AG16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="15:33">
@@ -4130,19 +4091,19 @@
         <v>306</v>
       </c>
       <c r="AC17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AD17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AE17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AG17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="15:33">
@@ -4170,19 +4131,19 @@
         <v>308</v>
       </c>
       <c r="AC19" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="AD19" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="AE19" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="AF19" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="AG19" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="15:33">
@@ -4190,19 +4151,19 @@
         <v>309</v>
       </c>
       <c r="AC20" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AD20" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AE20" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AF20" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AG20" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="15:33">
@@ -4210,19 +4171,19 @@
         <v>310</v>
       </c>
       <c r="AC21" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
       <c r="AD21" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
       <c r="AE21" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
       <c r="AF21" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
       <c r="AG21" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="15:33">
@@ -4230,19 +4191,19 @@
         <v>311</v>
       </c>
       <c r="AC22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AD22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AE22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AF22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AG22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="15:33">
@@ -4270,19 +4231,19 @@
         <v>313</v>
       </c>
       <c r="AC24" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AD24" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AE24" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AF24" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AG24" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="15:33">
@@ -4290,19 +4251,19 @@
         <v>314</v>
       </c>
       <c r="AC25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AD25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AE25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AF25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="AG25" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="15:33">
@@ -4310,19 +4271,19 @@
         <v>315</v>
       </c>
       <c r="AC26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AD26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AE26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AF26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AG26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="15:33">
@@ -4330,19 +4291,19 @@
         <v>316</v>
       </c>
       <c r="AC27" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AD27" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AE27" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AF27" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="AG27" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="15:33">
@@ -4350,19 +4311,19 @@
         <v>317</v>
       </c>
       <c r="AC28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AD28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AE28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AF28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AG28" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="15:33">
@@ -4370,19 +4331,19 @@
         <v>318</v>
       </c>
       <c r="AC29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AD29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AE29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AF29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AG29" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="15:33">
@@ -4390,19 +4351,19 @@
         <v>319</v>
       </c>
       <c r="AC30" t="s">
-        <v>630</v>
+        <v>282</v>
       </c>
       <c r="AD30" t="s">
-        <v>630</v>
+        <v>282</v>
       </c>
       <c r="AE30" t="s">
-        <v>630</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s">
-        <v>630</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s">
-        <v>630</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="15:33">
@@ -4430,19 +4391,19 @@
         <v>321</v>
       </c>
       <c r="AC32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AD32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AE32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AF32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AG32" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="15:33">
@@ -4450,19 +4411,19 @@
         <v>322</v>
       </c>
       <c r="AC33" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AD33" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AE33" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AF33" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="AG33" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="15:33">
@@ -4470,19 +4431,19 @@
         <v>323</v>
       </c>
       <c r="AC34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AD34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AE34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AF34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AG34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="15:33">
@@ -4490,19 +4451,19 @@
         <v>324</v>
       </c>
       <c r="AC35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AD35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AE35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AF35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="AG35" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="15:33">
@@ -5773,31 +5734,6 @@
     <row r="289" spans="15:15">
       <c r="O289" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="290" spans="15:15">
-      <c r="O290" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="291" spans="15:15">
-      <c r="O291" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="292" spans="15:15">
-      <c r="O292" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="293" spans="15:15">
-      <c r="O293" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="294" spans="15:15">
-      <c r="O294" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -17,13 +17,13 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="experimentalfactor1">'cv_sample'!$AC$1:$AC$35</definedName>
-    <definedName name="experimentalfactor2">'cv_sample'!$AD$1:$AD$35</definedName>
-    <definedName name="experimentalfactor3">'cv_sample'!$AE$1:$AE$35</definedName>
-    <definedName name="experimentalfactor4">'cv_sample'!$AF$1:$AF$35</definedName>
-    <definedName name="experimentalfactor5">'cv_sample'!$AG$1:$AG$35</definedName>
+    <definedName name="experimentalfactor1">'cv_sample'!$AE$1:$AE$35</definedName>
+    <definedName name="experimentalfactor2">'cv_sample'!$AF$1:$AF$35</definedName>
+    <definedName name="experimentalfactor3">'cv_sample'!$AG$1:$AG$35</definedName>
+    <definedName name="experimentalfactor4">'cv_sample'!$AH$1:$AH$35</definedName>
+    <definedName name="experimentalfactor5">'cv_sample'!$AI$1:$AI$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$O$1:$O$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="641">
   <si>
     <t>alias</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3480,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3489,7 +3501,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3533,10 +3545,10 @@
         <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>579</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>581</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>583</v>
@@ -3575,43 +3587,49 @@
         <v>605</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>617</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="150" customHeight="1">
+        <v>616</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3655,10 +3673,10 @@
         <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>580</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>582</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>584</v>
@@ -3697,60 +3715,66 @@
         <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>experimentalfactor1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>experimentalfactor2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
       <formula1>experimentalfactor3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
       <formula1>experimentalfactor4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
       <formula1>experimentalfactor5</formula1>
     </dataValidation>
   </dataValidations>
@@ -3760,1980 +3784,1980 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="O1:AG289"/>
+  <dimension ref="Q1:AI289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="15:33">
-      <c r="O1" t="s">
+    <row r="1" spans="17:35">
+      <c r="Q1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="17:35">
+      <c r="Q2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="17:35">
+      <c r="Q3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>612</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="17:35">
+      <c r="Q4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="17:35">
+      <c r="Q5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="17:35">
+      <c r="Q6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="17:35">
+      <c r="Q7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="17:35">
+      <c r="Q8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="17:35">
+      <c r="Q9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="17:35">
+      <c r="Q10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="17:35">
+      <c r="Q11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>599</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="17:35">
+      <c r="Q12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="17:35">
+      <c r="Q13" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>616</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="17:35">
+      <c r="Q14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="17:35">
+      <c r="Q15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="17:35">
+      <c r="Q16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>593</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="17:35">
+      <c r="Q17" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>589</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="17:35">
+      <c r="Q18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="17:35">
+      <c r="Q19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="17:35">
+      <c r="Q20" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>619</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="17:35">
+      <c r="Q21" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="17:35">
+      <c r="Q22" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>585</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="17:35">
+      <c r="Q23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="17:35">
+      <c r="Q24" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>620</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>620</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="25" spans="17:35">
+      <c r="Q25" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="26" spans="17:35">
+      <c r="Q26" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="17:35">
+      <c r="Q27" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="17:35">
+      <c r="Q28" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>623</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="17:35">
+      <c r="Q29" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>624</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>624</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>624</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="17:35">
+      <c r="Q30" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="17:35">
+      <c r="Q31" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE31" t="s">
         <v>290</v>
       </c>
-      <c r="AC1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="2" spans="15:33">
-      <c r="O2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="15:33">
-      <c r="O3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>608</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="15:33">
-      <c r="O4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>609</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>609</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>609</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>609</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="5" spans="15:33">
-      <c r="O5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>610</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>610</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="15:33">
-      <c r="O6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AF31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="17:35">
+      <c r="Q32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="17:35">
+      <c r="Q33" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>625</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>625</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>625</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>625</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="17:35">
+      <c r="Q34" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE34" t="s">
         <v>605</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF34" t="s">
         <v>605</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG34" t="s">
         <v>605</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH34" t="s">
         <v>605</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI34" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="7" spans="15:33">
-      <c r="O7" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>593</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>593</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>593</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="15:33">
-      <c r="O8" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="15:33">
-      <c r="O9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="15:33">
-      <c r="O10" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>603</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>603</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>603</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>603</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="11" spans="15:33">
-      <c r="O11" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>595</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="15:33">
-      <c r="O12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>611</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>611</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="15:33">
-      <c r="O13" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>612</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>612</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>612</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="15:33">
-      <c r="O14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>613</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>613</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="15" spans="15:33">
-      <c r="O15" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>614</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>614</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>614</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="16" spans="15:33">
-      <c r="O16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="17" spans="15:33">
-      <c r="O17" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>585</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>585</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="15:33">
-      <c r="O18" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="15:33">
-      <c r="O19" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="15:33">
-      <c r="O20" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="15:33">
-      <c r="O21" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="15:33">
-      <c r="O22" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC22" t="s">
+    <row r="35" spans="17:35">
+      <c r="Q35" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="17:35">
+      <c r="Q36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="17:35">
+      <c r="Q37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="17:35">
+      <c r="Q38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="17:35">
+      <c r="Q39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="17:35">
+      <c r="Q40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="17:35">
+      <c r="Q41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="17:35">
+      <c r="Q42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="17:35">
+      <c r="Q43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="17:35">
+      <c r="Q44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="17:35">
+      <c r="Q45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="17:35">
+      <c r="Q46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="17:35">
+      <c r="Q47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="17:35">
+      <c r="Q48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17">
+      <c r="Q49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="17:17">
+      <c r="Q50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="17:17">
+      <c r="Q51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="17:17">
+      <c r="Q52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="17:17">
+      <c r="Q53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="17:17">
+      <c r="Q54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17">
+      <c r="Q55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="17:17">
+      <c r="Q56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="17:17">
+      <c r="Q57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="17:17">
+      <c r="Q58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="17:17">
+      <c r="Q59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="17:17">
+      <c r="Q60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="17:17">
+      <c r="Q61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="17:17">
+      <c r="Q62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="17:17">
+      <c r="Q63" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="17:17">
+      <c r="Q64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17">
+      <c r="Q65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17">
+      <c r="Q68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17">
+      <c r="Q69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17">
+      <c r="Q70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="17:17">
+      <c r="Q73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17">
+      <c r="Q75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="17:17">
+      <c r="Q76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17">
+      <c r="Q81" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="17:17">
+      <c r="Q84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17">
+      <c r="Q85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17">
+      <c r="Q86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17">
+      <c r="Q87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17">
+      <c r="Q88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="17:17">
+      <c r="Q89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17">
+      <c r="Q91" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="17:17">
+      <c r="Q92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17">
+      <c r="Q93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17">
+      <c r="Q97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="17:17">
+      <c r="Q100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17">
+      <c r="Q101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17">
+      <c r="Q103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17">
+      <c r="Q104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="17:17">
+      <c r="Q105" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17">
+      <c r="Q106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17">
+      <c r="Q107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="17:17">
+      <c r="Q108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17">
+      <c r="Q109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17">
+      <c r="Q110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17">
+      <c r="Q111" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="17:17">
+      <c r="Q113" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17">
+      <c r="Q114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="17:17">
+      <c r="Q116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17">
+      <c r="Q119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17">
+      <c r="Q120" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="17:17">
+      <c r="Q121" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="17:17">
+      <c r="Q122" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="17:17">
+      <c r="Q123" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="17:17">
+      <c r="Q124" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="17:17">
+      <c r="Q125" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="17:17">
+      <c r="Q126" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="17:17">
+      <c r="Q127" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="17:17">
+      <c r="Q128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="17:17">
+      <c r="Q129" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17">
+      <c r="Q130" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17">
+      <c r="Q131" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="132" spans="17:17">
+      <c r="Q132" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
+      <c r="Q135" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
+      <c r="Q136" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="137" spans="17:17">
+      <c r="Q137" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="140" spans="17:17">
+      <c r="Q140" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="144" spans="17:17">
+      <c r="Q144" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="145" spans="17:17">
+      <c r="Q145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="17:17">
+      <c r="Q147" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="148" spans="17:17">
+      <c r="Q148" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="17:17">
+      <c r="Q149" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="17:17">
+      <c r="Q150" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="17:17">
+      <c r="Q151" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="17:17">
+      <c r="Q152" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="17:17">
+      <c r="Q153" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="17:17">
+      <c r="Q154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="17:17">
+      <c r="Q155" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="156" spans="17:17">
+      <c r="Q156" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="17:17">
+      <c r="Q157" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="158" spans="17:17">
+      <c r="Q158" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="17:17">
+      <c r="Q159" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" spans="17:17">
+      <c r="Q160" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="17:17">
+      <c r="Q161" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="17:17">
+      <c r="Q162" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="163" spans="17:17">
+      <c r="Q163" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="164" spans="17:17">
+      <c r="Q164" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="17:17">
+      <c r="Q165" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="17:17">
+      <c r="Q166" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="167" spans="17:17">
+      <c r="Q167" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="168" spans="17:17">
+      <c r="Q168" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="169" spans="17:17">
+      <c r="Q169" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="170" spans="17:17">
+      <c r="Q170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="17:17">
+      <c r="Q171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="17:17">
+      <c r="Q172" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="17:17">
+      <c r="Q173" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="17:17">
+      <c r="Q174" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="175" spans="17:17">
+      <c r="Q175" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="176" spans="17:17">
+      <c r="Q176" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="177" spans="17:17">
+      <c r="Q177" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="178" spans="17:17">
+      <c r="Q178" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="17:17">
+      <c r="Q179" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="17:17">
+      <c r="Q180" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="181" spans="17:17">
+      <c r="Q181" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="182" spans="17:17">
+      <c r="Q182" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="17:17">
+      <c r="Q183" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" spans="17:17">
+      <c r="Q184" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="17:17">
+      <c r="Q185" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="17:17">
+      <c r="Q186" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="17:17">
+      <c r="Q187" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="17:17">
+      <c r="Q188" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="17:17">
+      <c r="Q189" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="190" spans="17:17">
+      <c r="Q190" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="17:17">
+      <c r="Q191" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="17:17">
+      <c r="Q192" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="193" spans="17:17">
+      <c r="Q193" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="194" spans="17:17">
+      <c r="Q194" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="195" spans="17:17">
+      <c r="Q195" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="196" spans="17:17">
+      <c r="Q196" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="197" spans="17:17">
+      <c r="Q197" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="198" spans="17:17">
+      <c r="Q198" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="199" spans="17:17">
+      <c r="Q199" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="200" spans="17:17">
+      <c r="Q200" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="201" spans="17:17">
+      <c r="Q201" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="202" spans="17:17">
+      <c r="Q202" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="203" spans="17:17">
+      <c r="Q203" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="204" spans="17:17">
+      <c r="Q204" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="205" spans="17:17">
+      <c r="Q205" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="206" spans="17:17">
+      <c r="Q206" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="207" spans="17:17">
+      <c r="Q207" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="17:17">
+      <c r="Q208" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209" spans="17:17">
+      <c r="Q209" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="210" spans="17:17">
+      <c r="Q210" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="211" spans="17:17">
+      <c r="Q211" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="212" spans="17:17">
+      <c r="Q212" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="213" spans="17:17">
+      <c r="Q213" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="17:17">
+      <c r="Q214" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="215" spans="17:17">
+      <c r="Q215" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="216" spans="17:17">
+      <c r="Q216" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="17:17">
+      <c r="Q217" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="218" spans="17:17">
+      <c r="Q218" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="219" spans="17:17">
+      <c r="Q219" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="220" spans="17:17">
+      <c r="Q220" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="221" spans="17:17">
+      <c r="Q221" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="222" spans="17:17">
+      <c r="Q222" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="223" spans="17:17">
+      <c r="Q223" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="224" spans="17:17">
+      <c r="Q224" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="225" spans="17:17">
+      <c r="Q225" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="226" spans="17:17">
+      <c r="Q226" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="227" spans="17:17">
+      <c r="Q227" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="228" spans="17:17">
+      <c r="Q228" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="229" spans="17:17">
+      <c r="Q229" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="17:17">
+      <c r="Q230" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="231" spans="17:17">
+      <c r="Q231" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="232" spans="17:17">
+      <c r="Q232" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="233" spans="17:17">
+      <c r="Q233" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="234" spans="17:17">
+      <c r="Q234" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="235" spans="17:17">
+      <c r="Q235" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="236" spans="17:17">
+      <c r="Q236" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="237" spans="17:17">
+      <c r="Q237" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="238" spans="17:17">
+      <c r="Q238" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="239" spans="17:17">
+      <c r="Q239" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="240" spans="17:17">
+      <c r="Q240" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="241" spans="17:17">
+      <c r="Q241" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="242" spans="17:17">
+      <c r="Q242" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="243" spans="17:17">
+      <c r="Q243" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="244" spans="17:17">
+      <c r="Q244" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="245" spans="17:17">
+      <c r="Q245" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="17:17">
+      <c r="Q246" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="247" spans="17:17">
+      <c r="Q247" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="248" spans="17:17">
+      <c r="Q248" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="249" spans="17:17">
+      <c r="Q249" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="250" spans="17:17">
+      <c r="Q250" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="251" spans="17:17">
+      <c r="Q251" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="252" spans="17:17">
+      <c r="Q252" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="253" spans="17:17">
+      <c r="Q253" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="254" spans="17:17">
+      <c r="Q254" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="17:17">
+      <c r="Q255" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="256" spans="17:17">
+      <c r="Q256" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="257" spans="17:17">
+      <c r="Q257" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="258" spans="17:17">
+      <c r="Q258" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="17:17">
+      <c r="Q259" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="260" spans="17:17">
+      <c r="Q260" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="261" spans="17:17">
+      <c r="Q261" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="262" spans="17:17">
+      <c r="Q262" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="263" spans="17:17">
+      <c r="Q263" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="264" spans="17:17">
+      <c r="Q264" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="265" spans="17:17">
+      <c r="Q265" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="266" spans="17:17">
+      <c r="Q266" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="267" spans="17:17">
+      <c r="Q267" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="268" spans="17:17">
+      <c r="Q268" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="269" spans="17:17">
+      <c r="Q269" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="270" spans="17:17">
+      <c r="Q270" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="271" spans="17:17">
+      <c r="Q271" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="272" spans="17:17">
+      <c r="Q272" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="273" spans="17:17">
+      <c r="Q273" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="274" spans="17:17">
+      <c r="Q274" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="17:17">
+      <c r="Q275" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="276" spans="17:17">
+      <c r="Q276" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="277" spans="17:17">
+      <c r="Q277" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="278" spans="17:17">
+      <c r="Q278" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="279" spans="17:17">
+      <c r="Q279" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="280" spans="17:17">
+      <c r="Q280" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="281" spans="17:17">
+      <c r="Q281" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="17:17">
+      <c r="Q282" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="17:17">
+      <c r="Q283" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="17:17">
+      <c r="Q284" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="17:17">
+      <c r="Q285" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="17:17">
+      <c r="Q286" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="287" spans="17:17">
+      <c r="Q287" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288" spans="17:17">
+      <c r="Q288" t="s">
         <v>581</v>
       </c>
-      <c r="AD22" t="s">
-        <v>581</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" spans="15:33">
-      <c r="O23" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="15:33">
-      <c r="O24" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>616</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>616</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="25" spans="15:33">
-      <c r="O25" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>617</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>617</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>617</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="15:33">
-      <c r="O26" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>591</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="15:33">
-      <c r="O27" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>618</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>618</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>618</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="28" spans="15:33">
-      <c r="O28" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>619</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>619</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>619</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>619</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="29" spans="15:33">
-      <c r="O29" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>620</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>620</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>620</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>620</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="30" spans="15:33">
-      <c r="O30" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="15:33">
-      <c r="O31" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="15:33">
-      <c r="O32" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="33" spans="15:33">
-      <c r="O33" t="s">
-        <v>322</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>621</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>621</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>621</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="34" spans="15:33">
-      <c r="O34" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>601</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>601</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>601</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>601</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="15:33">
-      <c r="O35" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>622</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>622</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>622</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>622</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="36" spans="15:33">
-      <c r="O36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="15:33">
-      <c r="O37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="15:33">
-      <c r="O38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="15:33">
-      <c r="O39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="15:33">
-      <c r="O40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="15:33">
-      <c r="O41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="15:33">
-      <c r="O42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="15:33">
-      <c r="O43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" spans="15:33">
-      <c r="O44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="15:33">
-      <c r="O45" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="15:33">
-      <c r="O46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="15:33">
-      <c r="O47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="15:33">
-      <c r="O48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="15:15">
-      <c r="O50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="15:15">
-      <c r="O51" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="53" spans="15:15">
-      <c r="O53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="15:15">
-      <c r="O55" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="15:15">
-      <c r="O56" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="58" spans="15:15">
-      <c r="O58" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="15:15">
-      <c r="O59" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="15:15">
-      <c r="O60" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="15:15">
-      <c r="O62" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="15:15">
-      <c r="O63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="15:15">
-      <c r="O64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" spans="15:15">
-      <c r="O66" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="67" spans="15:15">
-      <c r="O67" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="15:15">
-      <c r="O68" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="15:15">
-      <c r="O69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="15:15">
-      <c r="O70" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="15:15">
-      <c r="O72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="73" spans="15:15">
-      <c r="O73" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="74" spans="15:15">
-      <c r="O74" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="15:15">
-      <c r="O75" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="76" spans="15:15">
-      <c r="O76" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="77" spans="15:15">
-      <c r="O77" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="78" spans="15:15">
-      <c r="O78" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="79" spans="15:15">
-      <c r="O79" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="80" spans="15:15">
-      <c r="O80" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="15:15">
-      <c r="O81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="15:15">
-      <c r="O82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="15:15">
-      <c r="O83" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" spans="15:15">
-      <c r="O84" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" spans="15:15">
-      <c r="O85" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="86" spans="15:15">
-      <c r="O86" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="15:15">
-      <c r="O87" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="88" spans="15:15">
-      <c r="O88" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="15:15">
-      <c r="O89" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="90" spans="15:15">
-      <c r="O90" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="15:15">
-      <c r="O91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="92" spans="15:15">
-      <c r="O92" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="93" spans="15:15">
-      <c r="O93" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="94" spans="15:15">
-      <c r="O94" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="95" spans="15:15">
-      <c r="O95" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="15:15">
-      <c r="O96" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="97" spans="15:15">
-      <c r="O97" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="98" spans="15:15">
-      <c r="O98" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="15:15">
-      <c r="O99" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="100" spans="15:15">
-      <c r="O100" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="15:15">
-      <c r="O101" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="15:15">
-      <c r="O102" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="103" spans="15:15">
-      <c r="O103" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="104" spans="15:15">
-      <c r="O104" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="15:15">
-      <c r="O105" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="106" spans="15:15">
-      <c r="O106" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="15:15">
-      <c r="O107" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="108" spans="15:15">
-      <c r="O108" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="15:15">
-      <c r="O109" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="111" spans="15:15">
-      <c r="O111" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="15:15">
-      <c r="O112" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="15:15">
-      <c r="O113" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="15:15">
-      <c r="O114" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="15:15">
-      <c r="O115" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="15:15">
-      <c r="O116" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="117" spans="15:15">
-      <c r="O117" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="118" spans="15:15">
-      <c r="O118" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="15:15">
-      <c r="O119" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="120" spans="15:15">
-      <c r="O120" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="121" spans="15:15">
-      <c r="O121" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="122" spans="15:15">
-      <c r="O122" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="15:15">
-      <c r="O123" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="15:15">
-      <c r="O124" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="15:15">
-      <c r="O125" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="126" spans="15:15">
-      <c r="O126" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="15:15">
-      <c r="O127" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="128" spans="15:15">
-      <c r="O128" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="129" spans="15:15">
-      <c r="O129" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="130" spans="15:15">
-      <c r="O130" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="131" spans="15:15">
-      <c r="O131" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="132" spans="15:15">
-      <c r="O132" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="133" spans="15:15">
-      <c r="O133" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="134" spans="15:15">
-      <c r="O134" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="135" spans="15:15">
-      <c r="O135" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="136" spans="15:15">
-      <c r="O136" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="137" spans="15:15">
-      <c r="O137" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="15:15">
-      <c r="O138" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="139" spans="15:15">
-      <c r="O139" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140" spans="15:15">
-      <c r="O140" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="141" spans="15:15">
-      <c r="O141" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="142" spans="15:15">
-      <c r="O142" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="143" spans="15:15">
-      <c r="O143" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="144" spans="15:15">
-      <c r="O144" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="145" spans="15:15">
-      <c r="O145" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="146" spans="15:15">
-      <c r="O146" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="147" spans="15:15">
-      <c r="O147" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="148" spans="15:15">
-      <c r="O148" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="149" spans="15:15">
-      <c r="O149" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="150" spans="15:15">
-      <c r="O150" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="151" spans="15:15">
-      <c r="O151" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="152" spans="15:15">
-      <c r="O152" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="153" spans="15:15">
-      <c r="O153" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="154" spans="15:15">
-      <c r="O154" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="155" spans="15:15">
-      <c r="O155" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="156" spans="15:15">
-      <c r="O156" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="157" spans="15:15">
-      <c r="O157" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="158" spans="15:15">
-      <c r="O158" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="159" spans="15:15">
-      <c r="O159" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="160" spans="15:15">
-      <c r="O160" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="161" spans="15:15">
-      <c r="O161" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="162" spans="15:15">
-      <c r="O162" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="163" spans="15:15">
-      <c r="O163" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="164" spans="15:15">
-      <c r="O164" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="165" spans="15:15">
-      <c r="O165" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="166" spans="15:15">
-      <c r="O166" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="167" spans="15:15">
-      <c r="O167" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="168" spans="15:15">
-      <c r="O168" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="169" spans="15:15">
-      <c r="O169" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="170" spans="15:15">
-      <c r="O170" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="171" spans="15:15">
-      <c r="O171" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="172" spans="15:15">
-      <c r="O172" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="173" spans="15:15">
-      <c r="O173" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="174" spans="15:15">
-      <c r="O174" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="175" spans="15:15">
-      <c r="O175" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="176" spans="15:15">
-      <c r="O176" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="177" spans="15:15">
-      <c r="O177" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="178" spans="15:15">
-      <c r="O178" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="179" spans="15:15">
-      <c r="O179" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="180" spans="15:15">
-      <c r="O180" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="181" spans="15:15">
-      <c r="O181" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="182" spans="15:15">
-      <c r="O182" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="183" spans="15:15">
-      <c r="O183" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="184" spans="15:15">
-      <c r="O184" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="185" spans="15:15">
-      <c r="O185" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="186" spans="15:15">
-      <c r="O186" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="187" spans="15:15">
-      <c r="O187" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="188" spans="15:15">
-      <c r="O188" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="189" spans="15:15">
-      <c r="O189" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="190" spans="15:15">
-      <c r="O190" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="191" spans="15:15">
-      <c r="O191" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="192" spans="15:15">
-      <c r="O192" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="193" spans="15:15">
-      <c r="O193" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="194" spans="15:15">
-      <c r="O194" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="195" spans="15:15">
-      <c r="O195" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="196" spans="15:15">
-      <c r="O196" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="197" spans="15:15">
-      <c r="O197" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="198" spans="15:15">
-      <c r="O198" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="199" spans="15:15">
-      <c r="O199" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="200" spans="15:15">
-      <c r="O200" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="201" spans="15:15">
-      <c r="O201" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="202" spans="15:15">
-      <c r="O202" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="203" spans="15:15">
-      <c r="O203" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="204" spans="15:15">
-      <c r="O204" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="205" spans="15:15">
-      <c r="O205" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="206" spans="15:15">
-      <c r="O206" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="207" spans="15:15">
-      <c r="O207" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="208" spans="15:15">
-      <c r="O208" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="209" spans="15:15">
-      <c r="O209" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="210" spans="15:15">
-      <c r="O210" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="211" spans="15:15">
-      <c r="O211" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="212" spans="15:15">
-      <c r="O212" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="213" spans="15:15">
-      <c r="O213" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="214" spans="15:15">
-      <c r="O214" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="215" spans="15:15">
-      <c r="O215" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="216" spans="15:15">
-      <c r="O216" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="217" spans="15:15">
-      <c r="O217" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="218" spans="15:15">
-      <c r="O218" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="219" spans="15:15">
-      <c r="O219" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="220" spans="15:15">
-      <c r="O220" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="221" spans="15:15">
-      <c r="O221" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="222" spans="15:15">
-      <c r="O222" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="223" spans="15:15">
-      <c r="O223" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="224" spans="15:15">
-      <c r="O224" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="225" spans="15:15">
-      <c r="O225" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="226" spans="15:15">
-      <c r="O226" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="227" spans="15:15">
-      <c r="O227" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="228" spans="15:15">
-      <c r="O228" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="229" spans="15:15">
-      <c r="O229" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="230" spans="15:15">
-      <c r="O230" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="231" spans="15:15">
-      <c r="O231" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="232" spans="15:15">
-      <c r="O232" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="233" spans="15:15">
-      <c r="O233" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="234" spans="15:15">
-      <c r="O234" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="235" spans="15:15">
-      <c r="O235" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="236" spans="15:15">
-      <c r="O236" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="237" spans="15:15">
-      <c r="O237" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="238" spans="15:15">
-      <c r="O238" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="239" spans="15:15">
-      <c r="O239" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="240" spans="15:15">
-      <c r="O240" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="241" spans="15:15">
-      <c r="O241" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="242" spans="15:15">
-      <c r="O242" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="243" spans="15:15">
-      <c r="O243" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="244" spans="15:15">
-      <c r="O244" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="245" spans="15:15">
-      <c r="O245" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="246" spans="15:15">
-      <c r="O246" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="247" spans="15:15">
-      <c r="O247" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="248" spans="15:15">
-      <c r="O248" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="249" spans="15:15">
-      <c r="O249" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="250" spans="15:15">
-      <c r="O250" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="251" spans="15:15">
-      <c r="O251" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="252" spans="15:15">
-      <c r="O252" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="253" spans="15:15">
-      <c r="O253" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="254" spans="15:15">
-      <c r="O254" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="255" spans="15:15">
-      <c r="O255" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="256" spans="15:15">
-      <c r="O256" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="257" spans="15:15">
-      <c r="O257" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="258" spans="15:15">
-      <c r="O258" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="259" spans="15:15">
-      <c r="O259" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="260" spans="15:15">
-      <c r="O260" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="261" spans="15:15">
-      <c r="O261" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="262" spans="15:15">
-      <c r="O262" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="263" spans="15:15">
-      <c r="O263" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="264" spans="15:15">
-      <c r="O264" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="265" spans="15:15">
-      <c r="O265" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="266" spans="15:15">
-      <c r="O266" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="267" spans="15:15">
-      <c r="O267" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="268" spans="15:15">
-      <c r="O268" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="269" spans="15:15">
-      <c r="O269" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="270" spans="15:15">
-      <c r="O270" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="271" spans="15:15">
-      <c r="O271" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="272" spans="15:15">
-      <c r="O272" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="273" spans="15:15">
-      <c r="O273" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="274" spans="15:15">
-      <c r="O274" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="275" spans="15:15">
-      <c r="O275" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="276" spans="15:15">
-      <c r="O276" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="277" spans="15:15">
-      <c r="O277" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="278" spans="15:15">
-      <c r="O278" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="279" spans="15:15">
-      <c r="O279" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="280" spans="15:15">
-      <c r="O280" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="281" spans="15:15">
-      <c r="O281" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="282" spans="15:15">
-      <c r="O282" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="283" spans="15:15">
-      <c r="O283" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="284" spans="15:15">
-      <c r="O284" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="285" spans="15:15">
-      <c r="O285" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="286" spans="15:15">
-      <c r="O286" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="287" spans="15:15">
-      <c r="O287" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="288" spans="15:15">
-      <c r="O288" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="289" spans="15:15">
-      <c r="O289" t="s">
-        <v>578</v>
+    </row>
+    <row r="289" spans="17:17">
+      <c r="Q289" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000035/metadata_template_ERC000035.xlsx
+++ b/templates/ERC000035/metadata_template_ERC000035.xlsx
@@ -23,7 +23,7 @@
     <definedName name="experimentalfactor4">'cv_sample'!$AH$1:$AH$35</definedName>
     <definedName name="experimentalfactor5">'cv_sample'!$AI$1:$AI$35</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="646">
   <si>
     <t>alias</t>
   </si>
@@ -1133,9 +1133,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1154,6 +1151,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1355,6 +1355,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1364,9 +1367,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1406,7 +1406,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1475,6 +1475,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1550,6 +1553,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1571,6 +1577,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1616,6 +1625,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1628,6 +1640,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1637,9 +1652,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1664,6 +1676,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1724,10 +1739,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3551,82 +3566,82 @@
         <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="150" customHeight="1">
@@ -3679,82 +3694,82 @@
         <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3799,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q1:AI289"/>
+  <dimension ref="Q1:AI294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3795,19 +3810,19 @@
         <v>294</v>
       </c>
       <c r="AE1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AF1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AG1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AH1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AI1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="17:35">
@@ -3835,19 +3850,19 @@
         <v>296</v>
       </c>
       <c r="AE3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AF3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AG3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AH3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AI3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="17:35">
@@ -3855,19 +3870,19 @@
         <v>297</v>
       </c>
       <c r="AE4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AF4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AG4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AH4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AI4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="17:35">
@@ -3875,19 +3890,19 @@
         <v>298</v>
       </c>
       <c r="AE5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AF5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AG5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AH5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AI5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="17:35">
@@ -3895,19 +3910,19 @@
         <v>299</v>
       </c>
       <c r="AE6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AF6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AG6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AH6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AI6" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="17:35">
@@ -3915,19 +3930,19 @@
         <v>300</v>
       </c>
       <c r="AE7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AF7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AG7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AH7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="AI7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="17:35">
@@ -3955,19 +3970,19 @@
         <v>302</v>
       </c>
       <c r="AE9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AF9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AG9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AH9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AI9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="17:35">
@@ -3975,19 +3990,19 @@
         <v>303</v>
       </c>
       <c r="AE10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AF10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AH10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AI10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="17:35">
@@ -3995,19 +4010,19 @@
         <v>304</v>
       </c>
       <c r="AE11" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AF11" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AG11" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AH11" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="AI11" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="17:35">
@@ -4015,19 +4030,19 @@
         <v>305</v>
       </c>
       <c r="AE12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AF12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AG12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AH12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AI12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="17:35">
@@ -4035,19 +4050,19 @@
         <v>306</v>
       </c>
       <c r="AE13" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AF13" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AG13" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AH13" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AI13" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="17:35">
@@ -4055,19 +4070,19 @@
         <v>307</v>
       </c>
       <c r="AE14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AF14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AG14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AH14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AI14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="17:35">
@@ -4075,19 +4090,19 @@
         <v>308</v>
       </c>
       <c r="AE15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AF15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AG15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AH15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AI15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="17:35">
@@ -4095,19 +4110,19 @@
         <v>309</v>
       </c>
       <c r="AE16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AF16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AG16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AH16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AI16" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="17:35">
@@ -4115,19 +4130,19 @@
         <v>310</v>
       </c>
       <c r="AE17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AF17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AG17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AH17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AI17" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="17:35">
@@ -4175,19 +4190,19 @@
         <v>313</v>
       </c>
       <c r="AE20" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AF20" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AG20" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AH20" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AI20" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="17:35">
@@ -4215,19 +4230,19 @@
         <v>315</v>
       </c>
       <c r="AE22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AF22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AG22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AH22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AI22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="17:35">
@@ -4255,19 +4270,19 @@
         <v>317</v>
       </c>
       <c r="AE24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AF24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AG24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AH24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AI24" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="17:35">
@@ -4275,19 +4290,19 @@
         <v>318</v>
       </c>
       <c r="AE25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AF25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AG25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AH25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AI25" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="17:35">
@@ -4295,19 +4310,19 @@
         <v>319</v>
       </c>
       <c r="AE26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AF26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AG26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AH26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AI26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="17:35">
@@ -4315,19 +4330,19 @@
         <v>320</v>
       </c>
       <c r="AE27" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AF27" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AG27" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AH27" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AI27" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="17:35">
@@ -4335,19 +4350,19 @@
         <v>321</v>
       </c>
       <c r="AE28" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AF28" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AG28" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AH28" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AI28" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="17:35">
@@ -4355,19 +4370,19 @@
         <v>322</v>
       </c>
       <c r="AE29" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AF29" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AG29" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AH29" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AI29" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="17:35">
@@ -4415,19 +4430,19 @@
         <v>325</v>
       </c>
       <c r="AE32" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AF32" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AG32" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AH32" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AI32" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="17:35">
@@ -4435,19 +4450,19 @@
         <v>326</v>
       </c>
       <c r="AE33" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AF33" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AG33" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AH33" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AI33" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="17:35">
@@ -4455,19 +4470,19 @@
         <v>327</v>
       </c>
       <c r="AE34" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AF34" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AG34" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AH34" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AI34" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="17:35">
@@ -4475,19 +4490,19 @@
         <v>328</v>
       </c>
       <c r="AE35" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AF35" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AG35" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AH35" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AI35" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="17:35">
@@ -5758,6 +5773,31 @@
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="17:17">
+      <c r="Q290" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17">
+      <c r="Q291" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17">
+      <c r="Q292" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17">
+      <c r="Q293" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17">
+      <c r="Q294" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
